--- a/othello/player_prog/result/rate_excel/MC.xlsx
+++ b/othello/player_prog/result/rate_excel/MC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukai3264/takao/othello/player_prog/result/board1rateT_MC/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D9A1A4-C09D-E047-9317-334A115CD63C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD19C2E-1624-CA45-9D5F-30AFBE7492E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="M107" sqref="M107"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,31 +435,31 @@
         <v>130</v>
       </c>
       <c r="B2">
-        <v>-185.44285531377619</v>
+        <v>655.77400813163786</v>
       </c>
       <c r="C2">
-        <v>90.709913948464902</v>
+        <v>1085.645776847829</v>
       </c>
       <c r="D2">
-        <v>100.2859123522384</v>
+        <v>1101.209162229562</v>
       </c>
       <c r="E2">
-        <v>170.3045776597686</v>
+        <v>1207.382162494391</v>
       </c>
       <c r="F2">
-        <v>487.9666634160946</v>
+        <v>1801.886429869146</v>
       </c>
       <c r="G2">
-        <v>692.68300028825706</v>
+        <v>2188.0580221460118</v>
       </c>
       <c r="H2">
-        <v>273.41528769086131</v>
+        <v>1374.9841809862551</v>
       </c>
       <c r="I2">
-        <v>507.58507667943832</v>
+        <v>1822.152551718794</v>
       </c>
       <c r="J2">
-        <v>731.86853904977511</v>
+        <v>2262.9077055763742</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -467,31 +467,31 @@
         <v>452</v>
       </c>
       <c r="B3">
-        <v>6557.5063278918115</v>
+        <v>634.84369790402582</v>
       </c>
       <c r="C3">
-        <v>4083.4137363063651</v>
+        <v>1055.560212568724</v>
       </c>
       <c r="D3">
-        <v>9472.5954539973118</v>
+        <v>1152.7530554455709</v>
       </c>
       <c r="E3">
-        <v>10122.78759888762</v>
+        <v>1207.109527930726</v>
       </c>
       <c r="F3">
-        <v>20590.752764004032</v>
+        <v>1819.391599546022</v>
       </c>
       <c r="G3">
-        <v>26659.15762281093</v>
+        <v>2024.9104244810169</v>
       </c>
       <c r="H3">
-        <v>11977.49276801242</v>
+        <v>1372.846935842837</v>
       </c>
       <c r="I3">
-        <v>26628.84075490453</v>
+        <v>1951.913547169245</v>
       </c>
       <c r="J3">
-        <v>15844.842421029271</v>
+        <v>2280.67099911183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -499,31 +499,31 @@
         <v>789</v>
       </c>
       <c r="B4">
-        <v>433.1832666856908</v>
+        <v>656.30768738833149</v>
       </c>
       <c r="C4">
-        <v>782.97166966969814</v>
+        <v>1058.868891714983</v>
       </c>
       <c r="D4">
-        <v>787.34296185230505</v>
+        <v>1066.1863102657539</v>
       </c>
       <c r="E4">
-        <v>881.87636176750823</v>
+        <v>1172.4691294410979</v>
       </c>
       <c r="F4">
-        <v>1367.210837464251</v>
+        <v>1824.504155504947</v>
       </c>
       <c r="G4">
-        <v>1713.9587154776391</v>
+        <v>2252.5400141986179</v>
       </c>
       <c r="H4">
-        <v>1021.724474472384</v>
+        <v>1341.8844028157889</v>
       </c>
       <c r="I4">
-        <v>1400.3500340209789</v>
+        <v>1856.790525683854</v>
       </c>
       <c r="J4">
-        <v>1732.291308277815</v>
+        <v>2270.448882986615</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -531,31 +531,31 @@
         <v>680</v>
       </c>
       <c r="B5">
-        <v>684.7249388474321</v>
+        <v>770.74740050946207</v>
       </c>
       <c r="C5">
-        <v>902.97376558555698</v>
+        <v>1000.346602790647</v>
       </c>
       <c r="D5">
-        <v>1100.7666870092121</v>
+        <v>1210.7938029168499</v>
       </c>
       <c r="E5">
-        <v>1254.181071776286</v>
+        <v>1370.4040125075469</v>
       </c>
       <c r="F5">
-        <v>1708.3522946136079</v>
+        <v>1871.365316397854</v>
       </c>
       <c r="G5">
-        <v>1962.5211214501369</v>
+        <v>2146.5992968049341</v>
       </c>
       <c r="H5">
-        <v>1208.0407171983561</v>
+        <v>1323.531556767208</v>
       </c>
       <c r="I5">
-        <v>1532.5073337016411</v>
+        <v>1674.177642184713</v>
       </c>
       <c r="J5">
-        <v>1949.094055849916</v>
+        <v>2132.034369120785</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -563,31 +563,31 @@
         <v>891</v>
       </c>
       <c r="B6">
-        <v>685.73461337026561</v>
+        <v>771.95943775293983</v>
       </c>
       <c r="C6">
-        <v>903.84446843693763</v>
+        <v>1001.425797579084</v>
       </c>
       <c r="D6">
-        <v>1104.285668890964</v>
+        <v>1214.5676332209241</v>
       </c>
       <c r="E6">
-        <v>1254.135400365918</v>
+        <v>1370.4059010999281</v>
       </c>
       <c r="F6">
-        <v>1701.6546684328409</v>
+        <v>1863.6820241986391</v>
       </c>
       <c r="G6">
-        <v>1967.338316473546</v>
+        <v>2152.631813043176</v>
       </c>
       <c r="H6">
-        <v>1208.094985205908</v>
+        <v>1323.6765519861499</v>
       </c>
       <c r="I6">
-        <v>1528.372904250404</v>
+        <v>1669.1910434908091</v>
       </c>
       <c r="J6">
-        <v>1949.1385008909781</v>
+        <v>2132.4597976283471</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -595,31 +595,31 @@
         <v>544</v>
       </c>
       <c r="B7">
-        <v>612.785361914948</v>
+        <v>870.07456450707468</v>
       </c>
       <c r="C7">
-        <v>898.19891310995331</v>
+        <v>1194.2084797904679</v>
       </c>
       <c r="D7">
-        <v>962.64978464927935</v>
+        <v>1264.448691387877</v>
       </c>
       <c r="E7">
-        <v>1053.7580353105841</v>
+        <v>1371.3397244075379</v>
       </c>
       <c r="F7">
-        <v>1557.764093060505</v>
+        <v>1956.1568542163091</v>
       </c>
       <c r="G7">
-        <v>1568.0475815529819</v>
+        <v>1970.0765692738</v>
       </c>
       <c r="H7">
-        <v>1094.593570971896</v>
+        <v>1411.743155279247</v>
       </c>
       <c r="I7">
-        <v>1309.3867244366791</v>
+        <v>1665.329795636789</v>
       </c>
       <c r="J7">
-        <v>1426.64969081954</v>
+        <v>1796.6221655008981</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -627,31 +627,31 @@
         <v>954</v>
       </c>
       <c r="B8">
-        <v>635.17890610875224</v>
+        <v>643.44216610951707</v>
       </c>
       <c r="C8">
-        <v>1064.3832242004701</v>
+        <v>1075.565883908127</v>
       </c>
       <c r="D8">
-        <v>1109.6129714538849</v>
+        <v>1120.5774392619519</v>
       </c>
       <c r="E8">
-        <v>1193.315029479448</v>
+        <v>1205.4799762404859</v>
       </c>
       <c r="F8">
-        <v>1806.563988582697</v>
+        <v>1824.873397796732</v>
       </c>
       <c r="G8">
-        <v>2214.2563254838078</v>
+        <v>2234.5872384550762</v>
       </c>
       <c r="H8">
-        <v>1358.4587260026231</v>
+        <v>1370.8954806041979</v>
       </c>
       <c r="I8">
-        <v>1822.90147536477</v>
+        <v>1842.131720522849</v>
       </c>
       <c r="J8">
-        <v>2162.3761417345172</v>
+        <v>2182.4466971010629</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -659,31 +659,31 @@
         <v>995</v>
       </c>
       <c r="B9">
-        <v>586.9431850364823</v>
+        <v>662.79585982551566</v>
       </c>
       <c r="C9">
-        <v>1008.428309014459</v>
+        <v>1107.716438121716</v>
       </c>
       <c r="D9">
-        <v>1012.945628312096</v>
+        <v>1113.1071205955041</v>
       </c>
       <c r="E9">
-        <v>1099.311408959016</v>
+        <v>1202.433951502979</v>
       </c>
       <c r="F9">
-        <v>1683.4594959410019</v>
+        <v>1854.563419410777</v>
       </c>
       <c r="G9">
-        <v>1993.4915295777889</v>
+        <v>2185.4187751170139</v>
       </c>
       <c r="H9">
-        <v>1232.28751714494</v>
+        <v>1344.974093561128</v>
       </c>
       <c r="I9">
-        <v>1647.8172039321989</v>
+        <v>1811.394151517565</v>
       </c>
       <c r="J9">
-        <v>2023.7900336363291</v>
+        <v>2217.5961903478051</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -691,31 +691,31 @@
         <v>361</v>
       </c>
       <c r="B10">
-        <v>-4753.2486184001846</v>
+        <v>597.6286340798024</v>
       </c>
       <c r="C10">
-        <v>-4652.0039297066669</v>
+        <v>1031.8047937896779</v>
       </c>
       <c r="D10">
-        <v>-4623.4165409036577</v>
+        <v>1117.01911756562</v>
       </c>
       <c r="E10">
-        <v>-4606.7637614836221</v>
+        <v>1191.9262883232079</v>
       </c>
       <c r="F10">
-        <v>-4487.7092421345505</v>
+        <v>1959.0056040446379</v>
       </c>
       <c r="G10">
-        <v>-4428.7742740604936</v>
+        <v>2321.9214070630851</v>
       </c>
       <c r="H10">
-        <v>-4588.5701843725137</v>
+        <v>1260.2049685126219</v>
       </c>
       <c r="I10">
-        <v>-4503.8264268325574</v>
+        <v>1827.179611715334</v>
       </c>
       <c r="J10">
-        <v>-4476.3556951778783</v>
+        <v>2193.3095749060139</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -723,31 +723,31 @@
         <v>673</v>
       </c>
       <c r="B11">
-        <v>-413.2406288036359</v>
+        <v>652.96507605622173</v>
       </c>
       <c r="C11">
-        <v>-170.860175680206</v>
+        <v>1071.769699420551</v>
       </c>
       <c r="D11">
-        <v>-150.22862362332901</v>
+        <v>1101.2242900037099</v>
       </c>
       <c r="E11">
-        <v>-78.968471319305053</v>
+        <v>1222.2143712411059</v>
       </c>
       <c r="F11">
-        <v>244.80886522861141</v>
+        <v>1852.210272464491</v>
       </c>
       <c r="G11">
-        <v>391.68187151258297</v>
+        <v>2180.3611158954</v>
       </c>
       <c r="H11">
-        <v>63.253585854857853</v>
+        <v>1486.5653333989269</v>
       </c>
       <c r="I11">
-        <v>161.3015466941329</v>
+        <v>1662.0759300859829</v>
       </c>
       <c r="J11">
-        <v>432.46338097288418</v>
+        <v>2270.6139114336102</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -755,31 +755,31 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>163.23234340307761</v>
+        <v>624.88689835045022</v>
       </c>
       <c r="C12">
-        <v>514.74490029321703</v>
+        <v>1091.3068982088621</v>
       </c>
       <c r="D12">
-        <v>502.65031206634711</v>
+        <v>1074.40980736235</v>
       </c>
       <c r="E12">
-        <v>581.39411468037247</v>
+        <v>1178.9598754010981</v>
       </c>
       <c r="F12">
-        <v>1081.435784206373</v>
+        <v>1981.384681787554</v>
       </c>
       <c r="G12">
-        <v>1264.7315973786581</v>
+        <v>2231.7140098580012</v>
       </c>
       <c r="H12">
-        <v>699.88750776320092</v>
+        <v>1331.079695413403</v>
       </c>
       <c r="I12">
-        <v>982.35509015046921</v>
+        <v>1829.475970153617</v>
       </c>
       <c r="J12">
-        <v>1220.7090194248781</v>
+        <v>2156.7821634646598</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -787,31 +787,31 @@
         <v>399</v>
       </c>
       <c r="B13">
-        <v>372.68948207442219</v>
+        <v>725.90838296948016</v>
       </c>
       <c r="C13">
-        <v>701.14350020798179</v>
+        <v>1138.592823938337</v>
       </c>
       <c r="D13">
-        <v>722.57270095345405</v>
+        <v>1164.622712380185</v>
       </c>
       <c r="E13">
-        <v>810.5046190892665</v>
+        <v>1271.118067205249</v>
       </c>
       <c r="F13">
-        <v>1224.097073452145</v>
+        <v>1810.4412852180769</v>
       </c>
       <c r="G13">
-        <v>1484.503533019893</v>
+        <v>2151.1881824821621</v>
       </c>
       <c r="H13">
-        <v>973.98076842004173</v>
+        <v>1480.3153838219091</v>
       </c>
       <c r="I13">
-        <v>1181.508946325954</v>
+        <v>1750.021554605089</v>
       </c>
       <c r="J13">
-        <v>1376.980542086854</v>
+        <v>2007.7916073795091</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -819,31 +819,31 @@
         <v>417</v>
       </c>
       <c r="B14">
-        <v>715.18053846462112</v>
+        <v>750.01020086512733</v>
       </c>
       <c r="C14">
-        <v>1010.7811549984031</v>
+        <v>1052.082933786344</v>
       </c>
       <c r="D14">
-        <v>1099.732271472961</v>
+        <v>1141.800629455377</v>
       </c>
       <c r="E14">
-        <v>1232.944064435771</v>
+        <v>1279.632714057004</v>
       </c>
       <c r="F14">
-        <v>1862.158148119215</v>
+        <v>1935.1672825357041</v>
       </c>
       <c r="G14">
-        <v>1854.636427880318</v>
+        <v>1929.2137566168001</v>
       </c>
       <c r="H14">
-        <v>1284.622796686499</v>
+        <v>1330.9004808615059</v>
       </c>
       <c r="I14">
-        <v>1818.404370842037</v>
+        <v>1891.6786046408631</v>
       </c>
       <c r="J14">
-        <v>2111.8055756004969</v>
+        <v>2189.5133971812729</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -851,31 +851,31 @@
         <v>631</v>
       </c>
       <c r="B15">
-        <v>443.18870236817952</v>
+        <v>667.58139956741911</v>
       </c>
       <c r="C15">
-        <v>819.1272644921919</v>
+        <v>1103.655845432211</v>
       </c>
       <c r="D15">
-        <v>791.24638425876628</v>
+        <v>1072.7963016620211</v>
       </c>
       <c r="E15">
-        <v>916.74857470911832</v>
+        <v>1215.7320441714201</v>
       </c>
       <c r="F15">
-        <v>1433.8355215980289</v>
+        <v>1892.6192649763841</v>
       </c>
       <c r="G15">
-        <v>1677.195685922266</v>
+        <v>2182.55696586671</v>
       </c>
       <c r="H15">
-        <v>1044.7038253935141</v>
+        <v>1372.986780119091</v>
       </c>
       <c r="I15">
-        <v>1401.420659501812</v>
+        <v>1847.152947104802</v>
       </c>
       <c r="J15">
-        <v>1645.9001079921529</v>
+        <v>2144.9184510999371</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -883,31 +883,31 @@
         <v>648</v>
       </c>
       <c r="B16">
-        <v>-362.08092019293179</v>
+        <v>659.20111818764303</v>
       </c>
       <c r="C16">
-        <v>-5997.0627364685879</v>
+        <v>1077.4111686193919</v>
       </c>
       <c r="D16">
-        <v>-700.30717075599091</v>
+        <v>1137.115718924837</v>
       </c>
       <c r="E16">
-        <v>-3573.279929883136</v>
+        <v>1220.2258033591461</v>
       </c>
       <c r="F16">
-        <v>-2736.5514736501382</v>
+        <v>1845.1288675565879</v>
       </c>
       <c r="G16">
-        <v>808.9394436295172</v>
+        <v>2212.5570156910749</v>
       </c>
       <c r="H16">
-        <v>-4039.8029871155391</v>
+        <v>1397.501705435488</v>
       </c>
       <c r="I16">
-        <v>-7354.8952712636947</v>
+        <v>1711.24491976176</v>
       </c>
       <c r="J16">
-        <v>3375.8881356616512</v>
+        <v>2239.6136824640748</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -915,31 +915,31 @@
         <v>714</v>
       </c>
       <c r="B17">
-        <v>690.5590195821253</v>
+        <v>698.85072849376286</v>
       </c>
       <c r="C17">
-        <v>1083.2641102674891</v>
+        <v>1093.496051838009</v>
       </c>
       <c r="D17">
-        <v>1076.4125237578339</v>
+        <v>1086.9322203503491</v>
       </c>
       <c r="E17">
-        <v>1201.1477530114721</v>
+        <v>1211.8167017898229</v>
       </c>
       <c r="F17">
-        <v>1833.5836837691991</v>
+        <v>1853.4837949355301</v>
       </c>
       <c r="G17">
-        <v>2252.37313588807</v>
+        <v>2276.3699208946318</v>
       </c>
       <c r="H17">
-        <v>1293.0958719782871</v>
+        <v>1305.1290660810459</v>
       </c>
       <c r="I17">
-        <v>1821.9978186894641</v>
+        <v>1840.837078910313</v>
       </c>
       <c r="J17">
-        <v>2110.4450649899482</v>
+        <v>2133.084436706532</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -947,31 +947,31 @@
         <v>390</v>
       </c>
       <c r="B18">
-        <v>-664.09931700287007</v>
+        <v>650.79850686245254</v>
       </c>
       <c r="C18">
-        <v>-424.30854966883419</v>
+        <v>1091.5642159940751</v>
       </c>
       <c r="D18">
-        <v>-419.03521560572932</v>
+        <v>1096.855831332251</v>
       </c>
       <c r="E18">
-        <v>-355.11237663733431</v>
+        <v>1211.548170673937</v>
       </c>
       <c r="F18">
-        <v>-86.693208598302277</v>
+        <v>1805.177253666596</v>
       </c>
       <c r="G18">
-        <v>78.705982471514403</v>
+        <v>2174.6479611214309</v>
       </c>
       <c r="H18">
-        <v>-260.29021469636228</v>
+        <v>1395.541234847215</v>
       </c>
       <c r="I18">
-        <v>-78.862508305590211</v>
+        <v>1804.6358220107149</v>
       </c>
       <c r="J18">
-        <v>107.8444234029198</v>
+        <v>2269.2310034913271</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -979,31 +979,31 @@
         <v>615</v>
       </c>
       <c r="B19">
-        <v>540.13134265674216</v>
+        <v>682.3926148329881</v>
       </c>
       <c r="C19">
-        <v>882.70231339073473</v>
+        <v>1057.9991750701331</v>
       </c>
       <c r="D19">
-        <v>895.32059569977389</v>
+        <v>1072.2528289089651</v>
       </c>
       <c r="E19">
-        <v>1022.712464567481</v>
+        <v>1210.5959759779089</v>
       </c>
       <c r="F19">
-        <v>1539.837300940359</v>
+        <v>1835.1528954725061</v>
       </c>
       <c r="G19">
-        <v>1876.105100752696</v>
+        <v>2220.658349662865</v>
       </c>
       <c r="H19">
-        <v>1156.5416935769881</v>
+        <v>1363.5654028198819</v>
       </c>
       <c r="I19">
-        <v>1540.622875561339</v>
+        <v>1831.064002894519</v>
       </c>
       <c r="J19">
-        <v>1882.4665260933591</v>
+        <v>2226.3187543602271</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1011,31 +1011,31 @@
         <v>566</v>
       </c>
       <c r="B20">
-        <v>464.95124190398752</v>
+        <v>696.45925049430696</v>
       </c>
       <c r="C20">
-        <v>860.39092576857786</v>
+        <v>1169.255666058149</v>
       </c>
       <c r="D20">
-        <v>848.60262303185061</v>
+        <v>1157.626636671934</v>
       </c>
       <c r="E20">
-        <v>933.16644921761394</v>
+        <v>1251.793818553185</v>
       </c>
       <c r="F20">
-        <v>1356.833817255708</v>
+        <v>1764.6691998806671</v>
       </c>
       <c r="G20">
-        <v>1573.198173658217</v>
+        <v>2027.1866431853121</v>
       </c>
       <c r="H20">
-        <v>1163.794913112474</v>
+        <v>1529.730645870703</v>
       </c>
       <c r="I20">
-        <v>1342.4750473563031</v>
+        <v>1739.9590210127949</v>
       </c>
       <c r="J20">
-        <v>1686.652770522971</v>
+        <v>2163.319118272947</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1043,31 +1043,31 @@
         <v>401</v>
       </c>
       <c r="B21">
-        <v>598.87016705463816</v>
+        <v>630.55264696063591</v>
       </c>
       <c r="C21">
-        <v>1067.6087161063149</v>
+        <v>1111.3685618318871</v>
       </c>
       <c r="D21">
-        <v>1031.709445381061</v>
+        <v>1075.48977653578</v>
       </c>
       <c r="E21">
-        <v>1151.5328425794009</v>
+        <v>1197.0754993012749</v>
       </c>
       <c r="F21">
-        <v>1726.6644930621101</v>
+        <v>1801.0765300380269</v>
       </c>
       <c r="G21">
-        <v>2082.7259319133241</v>
+        <v>2168.5804791204491</v>
       </c>
       <c r="H21">
-        <v>1351.847719559988</v>
+        <v>1405.4198601732171</v>
       </c>
       <c r="I21">
-        <v>1824.235100015565</v>
+        <v>1900.5386293832089</v>
       </c>
       <c r="J21">
-        <v>2123.153035455297</v>
+        <v>2209.8980166555202</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1075,31 +1075,31 @@
         <v>731</v>
       </c>
       <c r="B22">
-        <v>616.36577444044156</v>
+        <v>623.96418422618854</v>
       </c>
       <c r="C22">
-        <v>1106.1425824098631</v>
+        <v>1116.800110128896</v>
       </c>
       <c r="D22">
-        <v>1073.411423964993</v>
+        <v>1084.245601868125</v>
       </c>
       <c r="E22">
-        <v>1216.114165611596</v>
+        <v>1227.1813347168411</v>
       </c>
       <c r="F22">
-        <v>1843.8657582217229</v>
+        <v>1863.914129262879</v>
       </c>
       <c r="G22">
-        <v>2142.789833477736</v>
+        <v>2164.776738688789</v>
       </c>
       <c r="H22">
-        <v>1338.4304309784029</v>
+        <v>1351.007874347903</v>
       </c>
       <c r="I22">
-        <v>1851.1457417614629</v>
+        <v>1870.225810427421</v>
       </c>
       <c r="J22">
-        <v>2175.4695623111202</v>
+        <v>2197.8842163329591</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1139,31 +1139,31 @@
         <v>162</v>
       </c>
       <c r="B24">
-        <v>-937.33026258913264</v>
+        <v>659.18778704095268</v>
       </c>
       <c r="C24">
-        <v>-732.00187571733045</v>
+        <v>1074.7015735409491</v>
       </c>
       <c r="D24">
-        <v>-715.82620462958778</v>
+        <v>1099.1434242493731</v>
       </c>
       <c r="E24">
-        <v>-661.72857758153418</v>
+        <v>1203.264455909341</v>
       </c>
       <c r="F24">
-        <v>-427.01152168707279</v>
+        <v>1741.2966232106601</v>
       </c>
       <c r="G24">
-        <v>-212.36495472525641</v>
+        <v>2307.0135197687282</v>
       </c>
       <c r="H24">
-        <v>-508.64203755183371</v>
+        <v>1537.121868898065</v>
       </c>
       <c r="I24">
-        <v>-430.57316258001651</v>
+        <v>1711.879375432532</v>
       </c>
       <c r="J24">
-        <v>-275.22977465302142</v>
+        <v>2166.391371949403</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1171,31 +1171,31 @@
         <v>745</v>
       </c>
       <c r="B25">
-        <v>666.85023879264497</v>
+        <v>674.79300056780482</v>
       </c>
       <c r="C25">
-        <v>1110.4262461251469</v>
+        <v>1121.001801579102</v>
       </c>
       <c r="D25">
-        <v>1119.095492602424</v>
+        <v>1130.000182571114</v>
       </c>
       <c r="E25">
-        <v>1234.8181976538569</v>
+        <v>1245.8306641983011</v>
       </c>
       <c r="F25">
-        <v>1899.4987371569539</v>
+        <v>1919.5950879494101</v>
       </c>
       <c r="G25">
-        <v>2125.8714756187628</v>
+        <v>2147.0686649847148</v>
       </c>
       <c r="H25">
-        <v>1303.074494374682</v>
+        <v>1315.1195438794889</v>
       </c>
       <c r="I25">
-        <v>1793.941936242956</v>
+        <v>1812.1826712267441</v>
       </c>
       <c r="J25">
-        <v>2112.7640928313122</v>
+        <v>2134.4083830433201</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1203,31 +1203,31 @@
         <v>827</v>
       </c>
       <c r="B26">
-        <v>-632.01302317897478</v>
+        <v>669.97596040341966</v>
       </c>
       <c r="C26">
-        <v>-385.76329756384229</v>
+        <v>1116.6440866784519</v>
       </c>
       <c r="D26">
-        <v>-389.91358426793829</v>
+        <v>1105.224230344144</v>
       </c>
       <c r="E26">
-        <v>-324.41422195097971</v>
+        <v>1218.0709111564099</v>
       </c>
       <c r="F26">
-        <v>-46.688511199991112</v>
+        <v>1847.761881806761</v>
       </c>
       <c r="G26">
-        <v>123.9465192418749</v>
+        <v>2197.39813417915</v>
       </c>
       <c r="H26">
-        <v>-250.9402134265425</v>
+        <v>1350.3847882485129</v>
       </c>
       <c r="I26">
-        <v>6.3789982882446399</v>
+        <v>1958.300509048785</v>
       </c>
       <c r="J26">
-        <v>38.924406369753108</v>
+        <v>2036.239498134368</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1235,31 +1235,31 @@
         <v>708</v>
       </c>
       <c r="B27">
-        <v>580.87657261817901</v>
+        <v>588.38389980160127</v>
       </c>
       <c r="C27">
-        <v>1004.785269475518</v>
+        <v>1015.500677874844</v>
       </c>
       <c r="D27">
-        <v>1105.504270327627</v>
+        <v>1116.181792250396</v>
       </c>
       <c r="E27">
-        <v>1210.8019494873231</v>
+        <v>1223.2081427140381</v>
       </c>
       <c r="F27">
-        <v>1869.090975751282</v>
+        <v>1887.3905538000381</v>
       </c>
       <c r="G27">
-        <v>2113.325997513341</v>
+        <v>2133.3455536009678</v>
       </c>
       <c r="H27">
-        <v>1444.6638865523439</v>
+        <v>1457.9347570002799</v>
       </c>
       <c r="I27">
-        <v>1847.5908927998539</v>
+        <v>1866.562844924709</v>
       </c>
       <c r="J27">
-        <v>2191.6913116917308</v>
+        <v>2211.4917780331261</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1267,31 +1267,31 @@
         <v>514</v>
       </c>
       <c r="B28">
-        <v>-1555.5548812102461</v>
+        <v>646.53012964406491</v>
       </c>
       <c r="C28">
-        <v>-1356.4100488175079</v>
+        <v>1130.852840720848</v>
       </c>
       <c r="D28">
-        <v>-1353.214703559149</v>
+        <v>1123.7849082681921</v>
       </c>
       <c r="E28">
-        <v>-1310.6588708823219</v>
+        <v>1224.267375374689</v>
       </c>
       <c r="F28">
-        <v>-1072.681702485937</v>
+        <v>1908.739701007567</v>
       </c>
       <c r="G28">
-        <v>-965.47317131029376</v>
+        <v>2152.4184794073171</v>
       </c>
       <c r="H28">
-        <v>-1239.3697760231189</v>
+        <v>1391.3576932799319</v>
       </c>
       <c r="I28">
-        <v>-1104.431573250298</v>
+        <v>1782.6872241766689</v>
       </c>
       <c r="J28">
-        <v>-996.2404050306244</v>
+        <v>2139.3616481207182</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1299,31 +1299,31 @@
         <v>113</v>
       </c>
       <c r="B29">
-        <v>655.43095564180976</v>
+        <v>690.51123180538366</v>
       </c>
       <c r="C29">
-        <v>1042.0343493247269</v>
+        <v>1086.460637482093</v>
       </c>
       <c r="D29">
-        <v>1079.7251460428099</v>
+        <v>1124.235834067066</v>
       </c>
       <c r="E29">
-        <v>1137.9326369472381</v>
+        <v>1185.090545589461</v>
       </c>
       <c r="F29">
-        <v>1702.309700785828</v>
+        <v>1772.3452848056611</v>
       </c>
       <c r="G29">
-        <v>2070.1580099787848</v>
+        <v>2152.1838040459461</v>
       </c>
       <c r="H29">
-        <v>1346.9279321072561</v>
+        <v>1398.25137123486</v>
       </c>
       <c r="I29">
-        <v>1791.966829350647</v>
+        <v>1866.851165947804</v>
       </c>
       <c r="J29">
-        <v>2140.8732668788498</v>
+        <v>2224.070125021723</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1331,31 +1331,31 @@
         <v>541</v>
       </c>
       <c r="B30">
-        <v>-165.51406801846639</v>
+        <v>669.7034838274692</v>
       </c>
       <c r="C30">
-        <v>80.625776502020017</v>
+        <v>1039.221842160511</v>
       </c>
       <c r="D30">
-        <v>120.2339145024351</v>
+        <v>1096.3086061899351</v>
       </c>
       <c r="E30">
-        <v>169.2258373025013</v>
+        <v>1166.261317849101</v>
       </c>
       <c r="F30">
-        <v>582.60971707893373</v>
+        <v>2006.869643540781</v>
       </c>
       <c r="G30">
-        <v>711.24868269301066</v>
+        <v>2221.4750793140252</v>
       </c>
       <c r="H30">
-        <v>256.85356200723731</v>
+        <v>1308.4044572190289</v>
       </c>
       <c r="I30">
-        <v>480.40508086432908</v>
+        <v>1783.409224371469</v>
       </c>
       <c r="J30">
-        <v>698.00574187360303</v>
+        <v>2208.3463455276828</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1363,31 +1363,31 @@
         <v>675</v>
       </c>
       <c r="B31">
-        <v>537.54064208025989</v>
+        <v>676.92027491923807</v>
       </c>
       <c r="C31">
-        <v>955.46369562939981</v>
+        <v>1139.1598556509241</v>
       </c>
       <c r="D31">
-        <v>952.16834640863362</v>
+        <v>1136.0936775109719</v>
       </c>
       <c r="E31">
-        <v>1035.325577363506</v>
+        <v>1225.871331366179</v>
       </c>
       <c r="F31">
-        <v>1613.8581386430631</v>
+        <v>1910.4373427643391</v>
       </c>
       <c r="G31">
-        <v>1796.836426937276</v>
+        <v>2108.9377765917779</v>
       </c>
       <c r="H31">
-        <v>1167.3554317294979</v>
+        <v>1373.7815291644531</v>
       </c>
       <c r="I31">
-        <v>1517.5405704397569</v>
+        <v>1795.380506885891</v>
       </c>
       <c r="J31">
-        <v>1816.8176110973641</v>
+        <v>2133.4177051462252</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1395,31 +1395,31 @@
         <v>348</v>
       </c>
       <c r="B32">
-        <v>53889.076255122563</v>
+        <v>764.2545160384667</v>
       </c>
       <c r="C32">
-        <v>9235.6373008664923</v>
+        <v>1029.672042514067</v>
       </c>
       <c r="D32">
-        <v>14525.617753855169</v>
+        <v>1201.269940514112</v>
       </c>
       <c r="E32">
-        <v>18361.752644440079</v>
+        <v>1312.287344630595</v>
       </c>
       <c r="F32">
-        <v>35832.885361436587</v>
+        <v>1943.952397004678</v>
       </c>
       <c r="G32">
-        <v>33853.999589217099</v>
+        <v>1881.3405319074909</v>
       </c>
       <c r="H32">
-        <v>19428.605439619911</v>
+        <v>1269.7182119506231</v>
       </c>
       <c r="I32">
-        <v>39261.682913869518</v>
+        <v>2119.5604660588201</v>
       </c>
       <c r="J32">
-        <v>33405.768871015447</v>
+        <v>1977.9445493811461</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1427,31 +1427,31 @@
         <v>686</v>
       </c>
       <c r="B33">
-        <v>-1241.7153124649569</v>
+        <v>653.49917870334411</v>
       </c>
       <c r="C33">
-        <v>-1072.2448391544931</v>
+        <v>1014.620080126421</v>
       </c>
       <c r="D33">
-        <v>-1036.1380432473959</v>
+        <v>1082.33902950066</v>
       </c>
       <c r="E33">
-        <v>-982.680532639896</v>
+        <v>1195.1584830625429</v>
       </c>
       <c r="F33">
-        <v>-721.69291076758134</v>
+        <v>1946.540352679775</v>
       </c>
       <c r="G33">
-        <v>-587.09992111350084</v>
+        <v>2287.644698096412</v>
       </c>
       <c r="H33">
-        <v>-911.81634328681503</v>
+        <v>1378.5786214625671</v>
       </c>
       <c r="I33">
-        <v>-723.59300605846192</v>
+        <v>1937.6902749282531</v>
       </c>
       <c r="J33">
-        <v>-709.67832165723075</v>
+        <v>2003.929281440023</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1459,31 +1459,31 @@
         <v>172</v>
       </c>
       <c r="B34">
-        <v>650.64089501473131</v>
+        <v>659.06351559546522</v>
       </c>
       <c r="C34">
-        <v>1102.4779438585849</v>
+        <v>1114.181239454103</v>
       </c>
       <c r="D34">
-        <v>1129.923793865564</v>
+        <v>1141.396779363979</v>
       </c>
       <c r="E34">
-        <v>1216.1012937359001</v>
+        <v>1228.740005432431</v>
       </c>
       <c r="F34">
-        <v>1761.8916711248521</v>
+        <v>1778.988394181536</v>
       </c>
       <c r="G34">
-        <v>2072.201530275885</v>
+        <v>2091.9840883654811</v>
       </c>
       <c r="H34">
-        <v>1399.6527458075759</v>
+        <v>1412.7708682989601</v>
       </c>
       <c r="I34">
-        <v>1807.830149644097</v>
+        <v>1826.2026977652911</v>
       </c>
       <c r="J34">
-        <v>2225.8546500392181</v>
+        <v>2246.6724115427528</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1491,31 +1491,31 @@
         <v>259</v>
       </c>
       <c r="B35">
-        <v>583.5569153548995</v>
+        <v>659.16223798902229</v>
       </c>
       <c r="C35">
-        <v>988.00151116706547</v>
+        <v>1087.3435182888691</v>
       </c>
       <c r="D35">
-        <v>1018.974597086614</v>
+        <v>1120.157053791203</v>
       </c>
       <c r="E35">
-        <v>1115.2824841563991</v>
+        <v>1219.964302774134</v>
       </c>
       <c r="F35">
-        <v>1652.186051043089</v>
+        <v>1818.3697679219131</v>
       </c>
       <c r="G35">
-        <v>2005.77450504582</v>
+        <v>2198.2905904579738</v>
       </c>
       <c r="H35">
-        <v>1244.1416755241401</v>
+        <v>1358.6626878826339</v>
       </c>
       <c r="I35">
-        <v>1673.850475259344</v>
+        <v>1838.080381343236</v>
       </c>
       <c r="J35">
-        <v>2007.2384681906599</v>
+        <v>2199.9694595510109</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1523,31 +1523,31 @@
         <v>216</v>
       </c>
       <c r="B36">
-        <v>231.86109278044421</v>
+        <v>727.25340561143389</v>
       </c>
       <c r="C36">
-        <v>495.42817691465189</v>
+        <v>1084.031323846621</v>
       </c>
       <c r="D36">
-        <v>603.01958401312902</v>
+        <v>1217.225055158867</v>
       </c>
       <c r="E36">
-        <v>669.26924122290234</v>
+        <v>1310.38228376085</v>
       </c>
       <c r="F36">
-        <v>1155.430427275888</v>
+        <v>1990.260133532332</v>
       </c>
       <c r="G36">
-        <v>1193.212966432339</v>
+        <v>2042.773064063219</v>
       </c>
       <c r="H36">
-        <v>803.71062280719786</v>
+        <v>1475.640531517231</v>
       </c>
       <c r="I36">
-        <v>895.83257883124247</v>
+        <v>1619.1994819528079</v>
       </c>
       <c r="J36">
-        <v>1198.6056017461101</v>
+        <v>2033.234720556638</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1555,31 +1555,31 @@
         <v>907</v>
       </c>
       <c r="B37">
-        <v>-165.70847770352569</v>
+        <v>669.18682504244475</v>
       </c>
       <c r="C37">
-        <v>80.474619077063508</v>
+        <v>1038.702966877295</v>
       </c>
       <c r="D37">
-        <v>120.0240451465797</v>
+        <v>1095.7871664479051</v>
       </c>
       <c r="E37">
-        <v>169.0493164274435</v>
+        <v>1165.756934112605</v>
       </c>
       <c r="F37">
-        <v>582.29290925981059</v>
+        <v>2009.5522907026359</v>
       </c>
       <c r="G37">
-        <v>713.51950702313206</v>
+        <v>2223.0040277377429</v>
       </c>
       <c r="H37">
-        <v>256.70117569385218</v>
+        <v>1307.9167483131571</v>
       </c>
       <c r="I37">
-        <v>478.23800235982281</v>
+        <v>1780.2406584910141</v>
       </c>
       <c r="J37">
-        <v>698.2277612559684</v>
+        <v>2209.8523822751972</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1587,31 +1587,31 @@
         <v>804</v>
       </c>
       <c r="B38">
-        <v>291.78422638942271</v>
+        <v>623.7994888462465</v>
       </c>
       <c r="C38">
-        <v>626.80918372944257</v>
+        <v>1045.3475175030781</v>
       </c>
       <c r="D38">
-        <v>645.61620339144758</v>
+        <v>1068.5389900234029</v>
       </c>
       <c r="E38">
-        <v>765.83701233476165</v>
+        <v>1212.8964652148561</v>
       </c>
       <c r="F38">
-        <v>1118.2416192157191</v>
+        <v>1715.5700246281581</v>
       </c>
       <c r="G38">
-        <v>1555.557050835331</v>
+        <v>2355.751467656803</v>
       </c>
       <c r="H38">
-        <v>894.43341027327847</v>
+        <v>1385.417721515551</v>
       </c>
       <c r="I38">
-        <v>1207.9956993927599</v>
+        <v>1834.3861448826799</v>
       </c>
       <c r="J38">
-        <v>1489.8500820204861</v>
+        <v>2258.292179729227</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1619,31 +1619,31 @@
         <v>826</v>
       </c>
       <c r="B39">
-        <v>-5266.7416330050573</v>
+        <v>697.43558570193113</v>
       </c>
       <c r="C39">
-        <v>-5194.2895436485396</v>
+        <v>1025.523401984731</v>
       </c>
       <c r="D39">
-        <v>-5155.4046236554104</v>
+        <v>1163.749190654323</v>
       </c>
       <c r="E39">
-        <v>-5130.3445933832654</v>
+        <v>1264.5043990936861</v>
       </c>
       <c r="F39">
-        <v>-5039.6827370399351</v>
+        <v>1835.415858379567</v>
       </c>
       <c r="G39">
-        <v>-4978.3089550255136</v>
+        <v>2175.2529017577208</v>
       </c>
       <c r="H39">
-        <v>-5088.4599381367134</v>
+        <v>1481.215829589848</v>
       </c>
       <c r="I39">
-        <v>-5046.274064696865</v>
+        <v>1778.687839576555</v>
       </c>
       <c r="J39">
-        <v>-5029.0339175434947</v>
+        <v>2078.2149932616348</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1651,31 +1651,31 @@
         <v>246</v>
       </c>
       <c r="B40">
-        <v>452.12663832235887</v>
+        <v>677.89012728871535</v>
       </c>
       <c r="C40">
-        <v>831.6161552134829</v>
+        <v>1136.954840663318</v>
       </c>
       <c r="D40">
-        <v>877.45783782040485</v>
+        <v>1191.0933512491829</v>
       </c>
       <c r="E40">
-        <v>980.13184081160557</v>
+        <v>1304.244337626292</v>
       </c>
       <c r="F40">
-        <v>1454.170058464847</v>
+        <v>1883.189934514518</v>
       </c>
       <c r="G40">
-        <v>1610.788764520446</v>
+        <v>2073.104476362415</v>
       </c>
       <c r="H40">
-        <v>1176.950877920902</v>
+        <v>1538.990979658925</v>
       </c>
       <c r="I40">
-        <v>1207.9018406149239</v>
+        <v>1570.1552674221621</v>
       </c>
       <c r="J40">
-        <v>1654.146469678316</v>
+        <v>2124.3766852144709</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1715,31 +1715,31 @@
         <v>264</v>
       </c>
       <c r="B42">
-        <v>-639.22329941167459</v>
+        <v>662.6537133075733</v>
       </c>
       <c r="C42">
-        <v>-398.61970886136021</v>
+        <v>1102.266598602554</v>
       </c>
       <c r="D42">
-        <v>-396.82273216073122</v>
+        <v>1103.003997648847</v>
       </c>
       <c r="E42">
-        <v>-343.20642822201279</v>
+        <v>1198.557464673788</v>
       </c>
       <c r="F42">
-        <v>-29.02305552247271</v>
+        <v>1909.910291879444</v>
       </c>
       <c r="G42">
-        <v>105.5745234866107</v>
+        <v>2176.9704869401148</v>
       </c>
       <c r="H42">
-        <v>-252.14854189153479</v>
+        <v>1373.6780592412911</v>
       </c>
       <c r="I42">
-        <v>-12.98845417874962</v>
+        <v>1933.0347659416291</v>
       </c>
       <c r="J42">
-        <v>31.809272820455849</v>
+        <v>2039.9246217647551</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1747,31 +1747,31 @@
         <v>886</v>
       </c>
       <c r="B43">
-        <v>685.07636330315802</v>
+        <v>693.29020384634646</v>
       </c>
       <c r="C43">
-        <v>1118.294166261215</v>
+        <v>1129.157472223965</v>
       </c>
       <c r="D43">
-        <v>1098.186543856767</v>
+        <v>1109.2619041941409</v>
       </c>
       <c r="E43">
-        <v>1218.9743203323339</v>
+        <v>1230.2482642254679</v>
       </c>
       <c r="F43">
-        <v>1764.927992250982</v>
+        <v>1783.2383113184389</v>
       </c>
       <c r="G43">
-        <v>2176.5456773187079</v>
+        <v>2198.8148653734279</v>
       </c>
       <c r="H43">
-        <v>1386.390149765067</v>
+        <v>1399.5614592473489</v>
       </c>
       <c r="I43">
-        <v>1821.40225071285</v>
+        <v>1839.337738738187</v>
       </c>
       <c r="J43">
-        <v>2095.5309293141859</v>
+        <v>2117.0897808326749</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1779,31 +1779,31 @@
         <v>569</v>
       </c>
       <c r="B44">
-        <v>-1866.15363316097</v>
+        <v>695.98353983295226</v>
       </c>
       <c r="C44">
-        <v>-1708.8184558055029</v>
+        <v>1073.840576123609</v>
       </c>
       <c r="D44">
-        <v>-1647.12269274853</v>
+        <v>1210.360091801931</v>
       </c>
       <c r="E44">
-        <v>-1624.5287212808109</v>
+        <v>1287.9150176018791</v>
       </c>
       <c r="F44">
-        <v>-1432.3675265817519</v>
+        <v>1849.0533268702461</v>
       </c>
       <c r="G44">
-        <v>-1362.7160898772779</v>
+        <v>2155.6576048665702</v>
       </c>
       <c r="H44">
-        <v>-1570.8823776058471</v>
+        <v>1371.2322370919319</v>
       </c>
       <c r="I44">
-        <v>-1486.3694445003091</v>
+        <v>1626.2585385430521</v>
       </c>
       <c r="J44">
-        <v>-1311.8721323496879</v>
+        <v>2229.6990672678289</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1811,31 +1811,31 @@
         <v>897</v>
       </c>
       <c r="B45">
-        <v>628.41999439501922</v>
+        <v>704.66198232140596</v>
       </c>
       <c r="C45">
-        <v>1061.674827672922</v>
+        <v>1162.32058446927</v>
       </c>
       <c r="D45">
-        <v>1041.7911874953909</v>
+        <v>1142.3122825769269</v>
       </c>
       <c r="E45">
-        <v>1152.03628868378</v>
+        <v>1256.534450446451</v>
       </c>
       <c r="F45">
-        <v>1745.2323236773391</v>
+        <v>1910.107889047523</v>
       </c>
       <c r="G45">
-        <v>1951.275005236882</v>
+        <v>2127.461374432221</v>
       </c>
       <c r="H45">
-        <v>1243.732391782888</v>
+        <v>1355.2389859028481</v>
       </c>
       <c r="I45">
-        <v>1689.6607405536261</v>
+        <v>1849.04600670013</v>
       </c>
       <c r="J45">
-        <v>1822.145944733305</v>
+        <v>1992.3164441032191</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1843,31 +1843,31 @@
         <v>837</v>
       </c>
       <c r="B46">
-        <v>292.3152571854921</v>
+        <v>624.18908438152619</v>
       </c>
       <c r="C46">
-        <v>627.39126739672133</v>
+        <v>1045.9596136933201</v>
       </c>
       <c r="D46">
-        <v>642.61616438201861</v>
+        <v>1065.267470679024</v>
       </c>
       <c r="E46">
-        <v>766.68919544888718</v>
+        <v>1214.118272287446</v>
       </c>
       <c r="F46">
-        <v>1122.316095108953</v>
+        <v>1722.503213511317</v>
       </c>
       <c r="G46">
-        <v>1550.865538150023</v>
+        <v>2341.473904413037</v>
       </c>
       <c r="H46">
-        <v>894.04971223401969</v>
+        <v>1385.365646126088</v>
       </c>
       <c r="I46">
-        <v>1214.7657861329301</v>
+        <v>1846.879697902873</v>
       </c>
       <c r="J46">
-        <v>1490.0990115610271</v>
+        <v>2254.243097005367</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1875,31 +1875,31 @@
         <v>391</v>
       </c>
       <c r="B47">
-        <v>-2740.9016922925348</v>
+        <v>621.90168567221724</v>
       </c>
       <c r="C47">
-        <v>-2565.9843120963842</v>
+        <v>1106.9576479394241</v>
       </c>
       <c r="D47">
-        <v>-2590.162827399141</v>
+        <v>1067.019193036899</v>
       </c>
       <c r="E47">
-        <v>-2550.7133762687258</v>
+        <v>1187.5063033342849</v>
       </c>
       <c r="F47">
-        <v>-2373.261966887987</v>
+        <v>1880.385938475966</v>
       </c>
       <c r="G47">
-        <v>-2325.608910488224</v>
+        <v>2208.1325598074732</v>
       </c>
       <c r="H47">
-        <v>-2484.1944025570228</v>
+        <v>1339.776231458359</v>
       </c>
       <c r="I47">
-        <v>-2380.0304051621429</v>
+        <v>1805.155948071483</v>
       </c>
       <c r="J47">
-        <v>-2269.2959753830128</v>
+        <v>2283.164492203895</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1907,31 +1907,31 @@
         <v>872</v>
       </c>
       <c r="B48">
-        <v>552.31776074351592</v>
+        <v>698.88705880853513</v>
       </c>
       <c r="C48">
-        <v>928.80802906612223</v>
+        <v>1118.2798482941801</v>
       </c>
       <c r="D48">
-        <v>956.11108049735174</v>
+        <v>1146.9525252696719</v>
       </c>
       <c r="E48">
-        <v>1048.221742107814</v>
+        <v>1251.962348470659</v>
       </c>
       <c r="F48">
-        <v>1617.762353806414</v>
+        <v>1894.4107429554431</v>
       </c>
       <c r="G48">
-        <v>1836.785189244438</v>
+        <v>2134.540682715623</v>
       </c>
       <c r="H48">
-        <v>1301.6000348556311</v>
+        <v>1533.466642871427</v>
       </c>
       <c r="I48">
-        <v>1488.531324490669</v>
+        <v>1754.308907669697</v>
       </c>
       <c r="J48">
-        <v>1687.181321207516</v>
+        <v>1967.1912429447641</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1939,31 +1939,31 @@
         <v>156</v>
       </c>
       <c r="B49">
-        <v>535.04452362364555</v>
+        <v>607.52990492595825</v>
       </c>
       <c r="C49">
-        <v>1001.738022007523</v>
+        <v>1105.9512444958889</v>
       </c>
       <c r="D49">
-        <v>1009.296808339554</v>
+        <v>1112.487535623693</v>
       </c>
       <c r="E49">
-        <v>1094.8660028989559</v>
+        <v>1205.002809217322</v>
       </c>
       <c r="F49">
-        <v>1635.6783447574221</v>
+        <v>1794.234717973007</v>
       </c>
       <c r="G49">
-        <v>1978.8993642032581</v>
+        <v>2159.7579948506509</v>
       </c>
       <c r="H49">
-        <v>1327.945647765466</v>
+        <v>1451.011914017472</v>
       </c>
       <c r="I49">
-        <v>1718.9999818277711</v>
+        <v>1885.415741933891</v>
       </c>
       <c r="J49">
-        <v>1998.222987022863</v>
+        <v>2178.6081369621161</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1971,31 +1971,31 @@
         <v>379</v>
       </c>
       <c r="B50">
-        <v>481.24239886909311</v>
+        <v>616.25949880084727</v>
       </c>
       <c r="C50">
-        <v>843.87250218124268</v>
+        <v>1020.7658465966319</v>
       </c>
       <c r="D50">
-        <v>904.1531253123394</v>
+        <v>1086.8425765571351</v>
       </c>
       <c r="E50">
-        <v>1043.4506198668821</v>
+        <v>1238.246383883667</v>
       </c>
       <c r="F50">
-        <v>1538.521570263649</v>
+        <v>1837.6543754096781</v>
       </c>
       <c r="G50">
-        <v>1847.816326664911</v>
+        <v>2189.4192287705828</v>
       </c>
       <c r="H50">
-        <v>1149.4603405069861</v>
+        <v>1360.473537436309</v>
       </c>
       <c r="I50">
-        <v>1564.825442130051</v>
+        <v>1863.1268298928539</v>
       </c>
       <c r="J50">
-        <v>1935.5384668013421</v>
+        <v>2287.2117226522942</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2003,31 +2003,31 @@
         <v>252</v>
       </c>
       <c r="B51">
-        <v>207.4893463324664</v>
+        <v>681.36800534776262</v>
       </c>
       <c r="C51">
-        <v>529.50534757677383</v>
+        <v>1107.2389845475329</v>
       </c>
       <c r="D51">
-        <v>529.59155624595974</v>
+        <v>1109.564000742962</v>
       </c>
       <c r="E51">
-        <v>614.78865535199259</v>
+        <v>1216.8532808278619</v>
       </c>
       <c r="F51">
-        <v>1064.8631812604069</v>
+        <v>1915.3380219058961</v>
       </c>
       <c r="G51">
-        <v>1241.835884468419</v>
+        <v>2151.0541642188741</v>
       </c>
       <c r="H51">
-        <v>745.18298275936581</v>
+        <v>1402.0049258012989</v>
       </c>
       <c r="I51">
-        <v>1040.7328765399859</v>
+        <v>1872.9609726533399</v>
       </c>
       <c r="J51">
-        <v>1162.0598311321789</v>
+        <v>2043.617643954469</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2035,31 +2035,31 @@
         <v>749</v>
       </c>
       <c r="B52">
-        <v>-1232.844030488852</v>
+        <v>646.28621325375616</v>
       </c>
       <c r="C52">
-        <v>-1017.942989190555</v>
+        <v>1089.2854838489579</v>
       </c>
       <c r="D52">
-        <v>-1009.3041520905711</v>
+        <v>1107.954898028252</v>
       </c>
       <c r="E52">
-        <v>-966.28257400307029</v>
+        <v>1194.93957835936</v>
       </c>
       <c r="F52">
-        <v>-718.91158405023646</v>
+        <v>1917.037634812772</v>
       </c>
       <c r="G52">
-        <v>-598.23399877912948</v>
+        <v>2233.0038996158769</v>
       </c>
       <c r="H52">
-        <v>-940.86177963727459</v>
+        <v>1255.447460945531</v>
       </c>
       <c r="I52">
-        <v>-742.29275710441959</v>
+        <v>1823.3848220980931</v>
       </c>
       <c r="J52">
-        <v>-614.96779612035925</v>
+        <v>2232.6600090374009</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2067,31 +2067,31 @@
         <v>195</v>
       </c>
       <c r="B53">
-        <v>592.01444337660269</v>
+        <v>742.16629579644382</v>
       </c>
       <c r="C53">
-        <v>949.70007384680866</v>
+        <v>1141.4822232033071</v>
       </c>
       <c r="D53">
-        <v>1005.144537230345</v>
+        <v>1202.669155467592</v>
       </c>
       <c r="E53">
-        <v>1075.5262938580979</v>
+        <v>1278.075275467942</v>
       </c>
       <c r="F53">
-        <v>1502.2706901437671</v>
+        <v>1761.871595012444</v>
       </c>
       <c r="G53">
-        <v>1782.29530482831</v>
+        <v>2078.1374209377709</v>
       </c>
       <c r="H53">
-        <v>1248.3369255556299</v>
+        <v>1472.861279345635</v>
       </c>
       <c r="I53">
-        <v>1475.231904655858</v>
+        <v>1727.2459059722889</v>
       </c>
       <c r="J53">
-        <v>1796.518940314181</v>
+        <v>2095.490848796579</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2099,31 +2099,31 @@
         <v>257</v>
       </c>
       <c r="B54">
-        <v>-1056.7917846784651</v>
+        <v>693.96502095707103</v>
       </c>
       <c r="C54">
-        <v>-2292.059671380021</v>
+        <v>937.57290826926715</v>
       </c>
       <c r="D54">
-        <v>-4900.7012771302507</v>
+        <v>1163.467753450763</v>
       </c>
       <c r="E54">
-        <v>-7016.3172584191616</v>
+        <v>1241.595364703885</v>
       </c>
       <c r="F54">
-        <v>-2610.1124329651889</v>
+        <v>2035.215163547444</v>
       </c>
       <c r="G54">
-        <v>380.04559862234231</v>
+        <v>2390.966987205341</v>
       </c>
       <c r="H54">
-        <v>-7001.6065893297782</v>
+        <v>1318.081203748088</v>
       </c>
       <c r="I54">
-        <v>-5120.915272497793</v>
+        <v>1808.215737001472</v>
       </c>
       <c r="J54">
-        <v>-3359.7924838329368</v>
+        <v>1910.9198611166701</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2131,31 +2131,31 @@
         <v>238</v>
       </c>
       <c r="B55">
-        <v>-932.59072282355044</v>
+        <v>663.72293312421084</v>
       </c>
       <c r="C55">
-        <v>-724.67575503468493</v>
+        <v>1083.8833705011571</v>
       </c>
       <c r="D55">
-        <v>-711.16707280087189</v>
+        <v>1104.3790242568809</v>
       </c>
       <c r="E55">
-        <v>-656.89383762265527</v>
+        <v>1208.5916504973859</v>
       </c>
       <c r="F55">
-        <v>-421.63717758480612</v>
+        <v>1747.7042062186119</v>
       </c>
       <c r="G55">
-        <v>-213.83745904988999</v>
+        <v>2275.0975974753328</v>
       </c>
       <c r="H55">
-        <v>-503.81193054677681</v>
+        <v>1542.0933247836681</v>
       </c>
       <c r="I55">
-        <v>-425.71000004222122</v>
+        <v>1717.4329932588289</v>
       </c>
       <c r="J55">
-        <v>-270.31083725679002</v>
+        <v>2157.0948998839249</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2163,31 +2163,31 @@
         <v>654</v>
       </c>
       <c r="B56">
-        <v>530.25873518565095</v>
+        <v>670.92849497463612</v>
       </c>
       <c r="C56">
-        <v>875.97911729084115</v>
+        <v>1049.3178650858531</v>
       </c>
       <c r="D56">
-        <v>888.83093913778703</v>
+        <v>1063.763944531345</v>
       </c>
       <c r="E56">
-        <v>1016.552529409512</v>
+        <v>1202.2256040501049</v>
       </c>
       <c r="F56">
-        <v>1541.591332438725</v>
+        <v>1840.916480954646</v>
       </c>
       <c r="G56">
-        <v>1886.82975593386</v>
+        <v>2235.196387950949</v>
       </c>
       <c r="H56">
-        <v>1146.460373129753</v>
+        <v>1350.316492036224</v>
       </c>
       <c r="I56">
-        <v>1552.9786369015931</v>
+        <v>1848.434880261515</v>
       </c>
       <c r="J56">
-        <v>1891.54409253227</v>
+        <v>2238.8998501547262</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2195,31 +2195,31 @@
         <v>658</v>
       </c>
       <c r="B57">
-        <v>-894.37405635944162</v>
+        <v>692.6542478075952</v>
       </c>
       <c r="C57">
-        <v>-678.81412131016168</v>
+        <v>1112.907678258493</v>
       </c>
       <c r="D57">
-        <v>-668.00374264725804</v>
+        <v>1135.6533444280631</v>
       </c>
       <c r="E57">
-        <v>-582.49511764123474</v>
+        <v>1298.6878628960301</v>
       </c>
       <c r="F57">
-        <v>-353.31300067661562</v>
+        <v>1820.4328422743181</v>
       </c>
       <c r="G57">
-        <v>-253.55943675914989</v>
+        <v>2052.1813628583218</v>
       </c>
       <c r="H57">
-        <v>-524.04725090442196</v>
+        <v>1394.399538839529</v>
       </c>
       <c r="I57">
-        <v>-349.35968306770388</v>
+        <v>1820.9086048303291</v>
       </c>
       <c r="J57">
-        <v>-181.36026827496659</v>
+        <v>2172.174517807327</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2227,31 +2227,31 @@
         <v>126</v>
       </c>
       <c r="B58">
-        <v>696.9920480783112</v>
+        <v>705.38442197548852</v>
       </c>
       <c r="C58">
-        <v>1119.74760484377</v>
+        <v>1131.215528257851</v>
       </c>
       <c r="D58">
-        <v>1155.6751280509</v>
+        <v>1167.6724876541889</v>
       </c>
       <c r="E58">
-        <v>1279.8485427427961</v>
+        <v>1291.9698595934519</v>
       </c>
       <c r="F58">
-        <v>1766.132993587684</v>
+        <v>1783.2531759998469</v>
       </c>
       <c r="G58">
-        <v>2114.102150723455</v>
+        <v>2134.256905611016</v>
       </c>
       <c r="H58">
-        <v>1475.6557572923321</v>
+        <v>1490.203399239495</v>
       </c>
       <c r="I58">
-        <v>1764.7478941402951</v>
+        <v>1780.9409833234531</v>
       </c>
       <c r="J58">
-        <v>1996.059360452143</v>
+        <v>2015.1032383452141</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2259,31 +2259,31 @@
         <v>284</v>
       </c>
       <c r="B59">
-        <v>596.73783825385033</v>
+        <v>674.4985091146176</v>
       </c>
       <c r="C59">
-        <v>967.65224373074102</v>
+        <v>1066.2880700178191</v>
       </c>
       <c r="D59">
-        <v>952.93935979908542</v>
+        <v>1049.1432300470931</v>
       </c>
       <c r="E59">
-        <v>1078.21252449233</v>
+        <v>1183.049876293341</v>
       </c>
       <c r="F59">
-        <v>1758.587916636875</v>
+        <v>1930.717170733793</v>
       </c>
       <c r="G59">
-        <v>2030.5485800684669</v>
+        <v>2216.6381519943011</v>
       </c>
       <c r="H59">
-        <v>1319.9683349613131</v>
+        <v>1440.483789977231</v>
       </c>
       <c r="I59">
-        <v>1650.117042502038</v>
+        <v>1815.522962224509</v>
       </c>
       <c r="J59">
-        <v>1944.055868208108</v>
+        <v>2123.6582395972951</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2291,31 +2291,31 @@
         <v>151</v>
       </c>
       <c r="B60">
-        <v>-4737.9884549646249</v>
+        <v>641.28870003730685</v>
       </c>
       <c r="C60">
-        <v>-4634.1784659353016</v>
+        <v>1090.6369927489991</v>
       </c>
       <c r="D60">
-        <v>-4626.323602765302</v>
+        <v>1094.989613125854</v>
       </c>
       <c r="E60">
-        <v>-4600.693513977114</v>
+        <v>1217.530656235301</v>
       </c>
       <c r="F60">
-        <v>-4492.9607838762004</v>
+        <v>1824.995794446387</v>
       </c>
       <c r="G60">
-        <v>-4427.5415264891226</v>
+        <v>2133.6147838515349</v>
       </c>
       <c r="H60">
-        <v>-4555.7366967906592</v>
+        <v>1404.043318132198</v>
       </c>
       <c r="I60">
-        <v>-4473.2959506974794</v>
+        <v>1965.3080779992899</v>
       </c>
       <c r="J60">
-        <v>-4458.8920986019593</v>
+        <v>2127.592063423127</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2323,31 +2323,31 @@
         <v>314</v>
       </c>
       <c r="B61">
-        <v>531.61504130665423</v>
+        <v>669.46485783749154</v>
       </c>
       <c r="C61">
-        <v>929.66175097814016</v>
+        <v>1109.3750039346851</v>
       </c>
       <c r="D61">
-        <v>927.54095663413136</v>
+        <v>1108.0391131897479</v>
       </c>
       <c r="E61">
-        <v>1032.708071329861</v>
+        <v>1221.1835788714541</v>
       </c>
       <c r="F61">
-        <v>1553.7378812755289</v>
+        <v>1843.512923036471</v>
       </c>
       <c r="G61">
-        <v>1798.6507577682471</v>
+        <v>2109.0597978228921</v>
       </c>
       <c r="H61">
-        <v>1201.172934249267</v>
+        <v>1413.247816892668</v>
       </c>
       <c r="I61">
-        <v>1653.6916217378771</v>
+        <v>1950.090891049334</v>
       </c>
       <c r="J61">
-        <v>1767.260931247411</v>
+        <v>2076.0260173652559</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2355,31 +2355,31 @@
         <v>611</v>
       </c>
       <c r="B62">
-        <v>687.44213070994397</v>
+        <v>695.67937220387716</v>
       </c>
       <c r="C62">
-        <v>1124.41092790585</v>
+        <v>1135.329965908971</v>
       </c>
       <c r="D62">
-        <v>1101.2960636705111</v>
+        <v>1112.4144565939789</v>
       </c>
       <c r="E62">
-        <v>1221.5134110572189</v>
+        <v>1232.831732836956</v>
       </c>
       <c r="F62">
-        <v>1767.3531562758949</v>
+        <v>1785.6296067799381</v>
       </c>
       <c r="G62">
-        <v>2161.3068557721172</v>
+        <v>2183.2839188041312</v>
       </c>
       <c r="H62">
-        <v>1391.7344323091349</v>
+        <v>1405.002109731166</v>
       </c>
       <c r="I62">
-        <v>1818.706222119913</v>
+        <v>1836.549569085631</v>
       </c>
       <c r="J62">
-        <v>2091.879782457077</v>
+        <v>2113.2792680553521</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2387,31 +2387,31 @@
         <v>770</v>
       </c>
       <c r="B63">
-        <v>662.943114537057</v>
+        <v>670.91835801448008</v>
       </c>
       <c r="C63">
-        <v>1059.9750216062371</v>
+        <v>1070.4488973807231</v>
       </c>
       <c r="D63">
-        <v>1118.8917833970129</v>
+        <v>1130.05759445433</v>
       </c>
       <c r="E63">
-        <v>1209.204872487865</v>
+        <v>1220.160314935526</v>
       </c>
       <c r="F63">
-        <v>1856.5264884931989</v>
+        <v>1875.8825884422599</v>
       </c>
       <c r="G63">
-        <v>2063.892514489346</v>
+        <v>2083.5546363139979</v>
       </c>
       <c r="H63">
-        <v>1434.5989883500749</v>
+        <v>1448.304830241806</v>
       </c>
       <c r="I63">
-        <v>1928.6072512670969</v>
+        <v>1947.553950161147</v>
       </c>
       <c r="J63">
-        <v>2033.041635682391</v>
+        <v>2053.1188300557292</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2419,31 +2419,31 @@
         <v>328</v>
       </c>
       <c r="B64">
-        <v>670.24847138897997</v>
+        <v>704.50794228543612</v>
       </c>
       <c r="C64">
-        <v>1085.0842814758121</v>
+        <v>1131.1317202636669</v>
       </c>
       <c r="D64">
-        <v>1108.3327399047839</v>
+        <v>1155.3402588252461</v>
       </c>
       <c r="E64">
-        <v>1224.7682064435719</v>
+        <v>1273.6416620856819</v>
       </c>
       <c r="F64">
-        <v>1690.038891963477</v>
+        <v>1759.0230121117379</v>
       </c>
       <c r="G64">
-        <v>1934.2173081589369</v>
+        <v>2007.7981507194679</v>
       </c>
       <c r="H64">
-        <v>1395.5865398652429</v>
+        <v>1451.053081474457</v>
       </c>
       <c r="I64">
-        <v>1880.295907388652</v>
+        <v>1952.806757695166</v>
       </c>
       <c r="J64">
-        <v>1988.958289718071</v>
+        <v>2064.6974145391368</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2451,31 +2451,31 @@
         <v>823</v>
       </c>
       <c r="B65">
-        <v>349.95309033925042</v>
+        <v>683.99136969400308</v>
       </c>
       <c r="C65">
-        <v>720.70991161910831</v>
+        <v>1152.151925056253</v>
       </c>
       <c r="D65">
-        <v>698.67571189550767</v>
+        <v>1126.3626367622689</v>
       </c>
       <c r="E65">
-        <v>796.56726057770913</v>
+        <v>1244.4780639006669</v>
       </c>
       <c r="F65">
-        <v>1204.1347783889389</v>
+        <v>1810.6337016121381</v>
       </c>
       <c r="G65">
-        <v>1336.621061974126</v>
+        <v>1968.374557595097</v>
       </c>
       <c r="H65">
-        <v>925.54234126509198</v>
+        <v>1407.8703197896921</v>
       </c>
       <c r="I65">
-        <v>1381.8715802834861</v>
+        <v>2024.9600063016219</v>
       </c>
       <c r="J65">
-        <v>1425.2526556502401</v>
+        <v>2081.1774192882599</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2483,31 +2483,31 @@
         <v>6</v>
       </c>
       <c r="B66">
-        <v>1078.802982243333</v>
+        <v>1299.2208445037541</v>
       </c>
       <c r="C66">
-        <v>1289.423508749953</v>
+        <v>1521.7542153160871</v>
       </c>
       <c r="D66">
-        <v>1336.546677060217</v>
+        <v>1568.0439487696201</v>
       </c>
       <c r="E66">
-        <v>1020.951200160759</v>
+        <v>1237.700494255485</v>
       </c>
       <c r="F66">
-        <v>1212.2982604301269</v>
+        <v>1437.0333808784039</v>
       </c>
       <c r="G66">
-        <v>1296.762417293872</v>
+        <v>1527.9449965474189</v>
       </c>
       <c r="H66">
-        <v>1266.5212812267021</v>
+        <v>1496.1439413015271</v>
       </c>
       <c r="I66">
-        <v>1427.7985692344009</v>
+        <v>1666.8127253488581</v>
       </c>
       <c r="J66">
-        <v>1497.3124604052709</v>
+        <v>1745.3454530788431</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2515,31 +2515,31 @@
         <v>666</v>
       </c>
       <c r="B67">
-        <v>-5266.2106131743194</v>
+        <v>698.00708816629572</v>
       </c>
       <c r="C67">
-        <v>-5193.9132808880258</v>
+        <v>1025.498776185661</v>
       </c>
       <c r="D67">
-        <v>-5155.0909146076083</v>
+        <v>1164.223030255931</v>
       </c>
       <c r="E67">
-        <v>-5130.4257786602757</v>
+        <v>1263.379673378289</v>
       </c>
       <c r="F67">
-        <v>-5038.7793676201318</v>
+        <v>1834.47558154885</v>
       </c>
       <c r="G67">
-        <v>-4979.217514654536</v>
+        <v>2174.1495630028958</v>
       </c>
       <c r="H67">
-        <v>-5087.9384903184109</v>
+        <v>1481.058310801536</v>
       </c>
       <c r="I67">
-        <v>-5044.9608387324897</v>
+        <v>1781.0700609373639</v>
       </c>
       <c r="J67">
-        <v>-5028.7862789737201</v>
+        <v>2078.1379157231759</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2547,31 +2547,31 @@
         <v>967</v>
       </c>
       <c r="B68">
-        <v>-1560.8781491164821</v>
+        <v>641.03474836177065</v>
       </c>
       <c r="C68">
-        <v>-1361.7104500974631</v>
+        <v>1124.006743960653</v>
       </c>
       <c r="D68">
-        <v>-1358.502364803355</v>
+        <v>1116.7457211376129</v>
       </c>
       <c r="E68">
-        <v>-1316.0335421624909</v>
+        <v>1217.572227709268</v>
       </c>
       <c r="F68">
-        <v>-1077.964192392197</v>
+        <v>1915.272955654106</v>
       </c>
       <c r="G68">
-        <v>-973.23229090393238</v>
+        <v>2158.2071637535191</v>
       </c>
       <c r="H68">
-        <v>-1245.6592635657221</v>
+        <v>1380.873641993775</v>
       </c>
       <c r="I68">
-        <v>-1106.0596863033099</v>
+        <v>1797.7971454018541</v>
       </c>
       <c r="J68">
-        <v>-1001.444269582898</v>
+        <v>2148.489652027441</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2579,31 +2579,31 @@
         <v>485</v>
       </c>
       <c r="B69">
-        <v>335.27872286645407</v>
+        <v>678.08021841256925</v>
       </c>
       <c r="C69">
-        <v>682.72673282667915</v>
+        <v>1122.368584764143</v>
       </c>
       <c r="D69">
-        <v>698.2198685087036</v>
+        <v>1140.8241650695491</v>
       </c>
       <c r="E69">
-        <v>800.18580193412799</v>
+        <v>1263.2090539201599</v>
       </c>
       <c r="F69">
-        <v>1157.496126852594</v>
+        <v>1737.0284953878479</v>
       </c>
       <c r="G69">
-        <v>1497.4094560528169</v>
+        <v>2201.1884110604701</v>
       </c>
       <c r="H69">
-        <v>973.58581944642879</v>
+        <v>1491.5747357512009</v>
       </c>
       <c r="I69">
-        <v>1157.5250011064811</v>
+        <v>1728.7966908983219</v>
       </c>
       <c r="J69">
-        <v>1450.131149459522</v>
+        <v>2136.929644735736</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2611,31 +2611,31 @@
         <v>54</v>
       </c>
       <c r="B70">
-        <v>603.70342913404045</v>
+        <v>682.01411485251492</v>
       </c>
       <c r="C70">
-        <v>992.19813198782072</v>
+        <v>1091.7080474248451</v>
       </c>
       <c r="D70">
-        <v>985.96608115134438</v>
+        <v>1083.948261010943</v>
       </c>
       <c r="E70">
-        <v>1086.5722266501291</v>
+        <v>1191.1486059857209</v>
       </c>
       <c r="F70">
-        <v>1633.722837368178</v>
+        <v>1795.728618550324</v>
       </c>
       <c r="G70">
-        <v>1997.4536479427491</v>
+        <v>2185.1625308791408</v>
       </c>
       <c r="H70">
-        <v>1257.342487317668</v>
+        <v>1370.7386137104961</v>
       </c>
       <c r="I70">
-        <v>1701.1641077522249</v>
+        <v>1870.4988627164289</v>
       </c>
       <c r="J70">
-        <v>2040.0477855405261</v>
+        <v>2229.0523448695881</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2643,31 +2643,31 @@
         <v>155</v>
       </c>
       <c r="B71">
-        <v>586.12279698763223</v>
+        <v>734.34730190490438</v>
       </c>
       <c r="C71">
-        <v>948.25172041561439</v>
+        <v>1136.599900673039</v>
       </c>
       <c r="D71">
-        <v>1009.811689348241</v>
+        <v>1200.8614697890091</v>
       </c>
       <c r="E71">
-        <v>1062.301954583947</v>
+        <v>1262.8912604862351</v>
       </c>
       <c r="F71">
-        <v>1654.3514883815469</v>
+        <v>1921.045301592877</v>
       </c>
       <c r="G71">
-        <v>1738.762625737206</v>
+        <v>2014.3774553540279</v>
       </c>
       <c r="H71">
-        <v>1307.4507085171581</v>
+        <v>1532.2646108454919</v>
       </c>
       <c r="I71">
-        <v>1545.7645496356811</v>
+        <v>1806.067669821188</v>
       </c>
       <c r="J71">
-        <v>1630.7633312567591</v>
+        <v>1891.5450295332271</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2675,31 +2675,31 @@
         <v>169</v>
       </c>
       <c r="B72">
-        <v>9494.1749258888303</v>
+        <v>563.89164445881568</v>
       </c>
       <c r="C72">
-        <v>12631.7079988611</v>
+        <v>1056.491948660987</v>
       </c>
       <c r="D72">
-        <v>17368.293634152389</v>
+        <v>1033.793187186438</v>
       </c>
       <c r="E72">
-        <v>42931.175503657352</v>
+        <v>1206.9526556896581</v>
       </c>
       <c r="F72">
-        <v>33304.791994074687</v>
+        <v>1932.6882228891291</v>
       </c>
       <c r="G72">
-        <v>48708.582356712781</v>
+        <v>2103.6899064817421</v>
       </c>
       <c r="H72">
-        <v>20451.355790443358</v>
+        <v>1387.699277038791</v>
       </c>
       <c r="I72">
-        <v>45493.000748009632</v>
+        <v>2016.2316868757639</v>
       </c>
       <c r="J72">
-        <v>51195.369963039397</v>
+        <v>2198.5614707186742</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2707,31 +2707,31 @@
         <v>208</v>
       </c>
       <c r="B73">
-        <v>571.73517225117052</v>
+        <v>647.71744337117309</v>
       </c>
       <c r="C73">
-        <v>1018.988815531281</v>
+        <v>1122.8721681713789</v>
       </c>
       <c r="D73">
-        <v>990.84228097247455</v>
+        <v>1092.679945354786</v>
       </c>
       <c r="E73">
-        <v>1111.7978607013661</v>
+        <v>1221.653660543933</v>
       </c>
       <c r="F73">
-        <v>1591.858610437333</v>
+        <v>1744.4623829750269</v>
       </c>
       <c r="G73">
-        <v>1918.429736911397</v>
+        <v>2098.9658888162849</v>
       </c>
       <c r="H73">
-        <v>1291.4992527736431</v>
+        <v>1409.666746287689</v>
       </c>
       <c r="I73">
-        <v>1721.765904363212</v>
+        <v>1887.69071944183</v>
       </c>
       <c r="J73">
-        <v>2083.8412626505019</v>
+        <v>2274.2910450378999</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2739,31 +2739,31 @@
         <v>733</v>
       </c>
       <c r="B74">
-        <v>621.48473418693652</v>
+        <v>701.57089671978952</v>
       </c>
       <c r="C74">
-        <v>1001.9698656341679</v>
+        <v>1104.155584290861</v>
       </c>
       <c r="D74">
-        <v>1007.4448382223291</v>
+        <v>1111.148979908495</v>
       </c>
       <c r="E74">
-        <v>1136.6929255680791</v>
+        <v>1245.7408054093969</v>
       </c>
       <c r="F74">
-        <v>1674.8062422583439</v>
+        <v>1837.7491538420361</v>
       </c>
       <c r="G74">
-        <v>1921.150910250589</v>
+        <v>2102.349589272163</v>
       </c>
       <c r="H74">
-        <v>1300.4319341787141</v>
+        <v>1423.3934431311829</v>
       </c>
       <c r="I74">
-        <v>1622.5976357352449</v>
+        <v>1777.6060345622709</v>
       </c>
       <c r="J74">
-        <v>2009.3744477585019</v>
+        <v>2196.285512863803</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2771,31 +2771,31 @@
         <v>817</v>
       </c>
       <c r="B75">
-        <v>-406.7393436867597</v>
+        <v>648.1177198832313</v>
       </c>
       <c r="C75">
-        <v>-143.59478715569759</v>
+        <v>1092.041414266884</v>
       </c>
       <c r="D75">
-        <v>-150.75192081741909</v>
+        <v>1083.1277759731561</v>
       </c>
       <c r="E75">
-        <v>-71.752964852281565</v>
+        <v>1209.315290797955</v>
       </c>
       <c r="F75">
-        <v>243.44043514631801</v>
+        <v>1878.16756443348</v>
       </c>
       <c r="G75">
-        <v>340.35431696856159</v>
+        <v>2038.600519641019</v>
       </c>
       <c r="H75">
-        <v>25.62382724210536</v>
+        <v>1391.397294543357</v>
       </c>
       <c r="I75">
-        <v>263.63749412476062</v>
+        <v>1895.372379536758</v>
       </c>
       <c r="J75">
-        <v>446.56112577977149</v>
+        <v>2263.860040924159</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2803,31 +2803,31 @@
         <v>546</v>
       </c>
       <c r="B76">
-        <v>-6724.3523815918106</v>
+        <v>689.22520230504256</v>
       </c>
       <c r="C76">
-        <v>-6636.8666680451042</v>
+        <v>1104.1685995997079</v>
       </c>
       <c r="D76">
-        <v>-6639.279316478588</v>
+        <v>1179.4854523583031</v>
       </c>
       <c r="E76">
-        <v>-6625.1571950509169</v>
+        <v>1256.091350482274</v>
       </c>
       <c r="F76">
-        <v>-6535.5099147284827</v>
+        <v>1812.9423298487609</v>
       </c>
       <c r="G76">
-        <v>-6522.8081427983088</v>
+        <v>2203.37571935189</v>
       </c>
       <c r="H76">
-        <v>-6567.2455491435612</v>
+        <v>1502.4850989233039</v>
       </c>
       <c r="I76">
-        <v>-6537.5729310690695</v>
+        <v>1767.9050628688581</v>
       </c>
       <c r="J76">
-        <v>-6511.1133349086813</v>
+        <v>1984.3211842618571</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2835,31 +2835,31 @@
         <v>486</v>
       </c>
       <c r="B77">
-        <v>-2775.197653145955</v>
+        <v>576.10139048585165</v>
       </c>
       <c r="C77">
-        <v>-2622.4568026919278</v>
+        <v>1059.956054687673</v>
       </c>
       <c r="D77">
-        <v>-2608.3326822342569</v>
+        <v>1079.831673056003</v>
       </c>
       <c r="E77">
-        <v>-2580.0326487649008</v>
+        <v>1172.5953225912281</v>
       </c>
       <c r="F77">
-        <v>-2404.7408652919989</v>
+        <v>1882.158813463886</v>
       </c>
       <c r="G77">
-        <v>-2317.5498760797941</v>
+        <v>2192.8694318850289</v>
       </c>
       <c r="H77">
-        <v>-2511.4421486579199</v>
+        <v>1402.070886402827</v>
       </c>
       <c r="I77">
-        <v>-2381.3868899246481</v>
+        <v>1974.055670582062</v>
       </c>
       <c r="J77">
-        <v>-2352.1221570588818</v>
+        <v>2160.3607568454381</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2867,31 +2867,31 @@
         <v>774</v>
       </c>
       <c r="B78">
-        <v>668.53830904579456</v>
+        <v>676.93187623595509</v>
       </c>
       <c r="C78">
-        <v>1081.342769540985</v>
+        <v>1091.990877404404</v>
       </c>
       <c r="D78">
-        <v>1086.481713219878</v>
+        <v>1096.8781112539771</v>
       </c>
       <c r="E78">
-        <v>1147.1075802374289</v>
+        <v>1158.308619905087</v>
       </c>
       <c r="F78">
-        <v>1863.2177998575321</v>
+        <v>1882.4446146733801</v>
       </c>
       <c r="G78">
-        <v>2205.4085731543082</v>
+        <v>2226.1581884221951</v>
       </c>
       <c r="H78">
-        <v>1327.306394619018</v>
+        <v>1338.8810902882769</v>
       </c>
       <c r="I78">
-        <v>1823.921070493574</v>
+        <v>1843.5719110024511</v>
       </c>
       <c r="J78">
-        <v>2164.4671853291879</v>
+        <v>2184.834710814273</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2899,31 +2899,31 @@
         <v>682</v>
       </c>
       <c r="B79">
-        <v>-1241.065442361044</v>
+        <v>648.20162603341828</v>
       </c>
       <c r="C79">
-        <v>-1032.1041601626489</v>
+        <v>1091.979396552508</v>
       </c>
       <c r="D79">
-        <v>-1036.483176816819</v>
+        <v>1087.636008642464</v>
       </c>
       <c r="E79">
-        <v>-984.74957998653645</v>
+        <v>1188.249132009917</v>
       </c>
       <c r="F79">
-        <v>-756.27655062900453</v>
+        <v>1815.9534286756329</v>
       </c>
       <c r="G79">
-        <v>-662.72992247780826</v>
+        <v>2043.671592631591</v>
       </c>
       <c r="H79">
-        <v>-910.48408591672307</v>
+        <v>1353.698777791798</v>
       </c>
       <c r="I79">
-        <v>-706.78920153583101</v>
+        <v>1923.511579804446</v>
       </c>
       <c r="J79">
-        <v>-583.16160137321936</v>
+        <v>2347.0984578582229</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2931,31 +2931,31 @@
         <v>174</v>
       </c>
       <c r="B80">
-        <v>536.56984273824264</v>
+        <v>681.61851946610795</v>
       </c>
       <c r="C80">
-        <v>942.18787888385486</v>
+        <v>1134.6135384837739</v>
       </c>
       <c r="D80">
-        <v>955.50646610126</v>
+        <v>1147.690884696148</v>
       </c>
       <c r="E80">
-        <v>1038.5361159202189</v>
+        <v>1241.6039141264041</v>
       </c>
       <c r="F80">
-        <v>1496.8594406364271</v>
+        <v>1760.179133658816</v>
       </c>
       <c r="G80">
-        <v>1742.283040361536</v>
+        <v>2041.458250852404</v>
       </c>
       <c r="H80">
-        <v>1256.1751373910431</v>
+        <v>1480.4522039960109</v>
       </c>
       <c r="I80">
-        <v>1517.9826345788731</v>
+        <v>1787.4915720185979</v>
       </c>
       <c r="J80">
-        <v>1906.6069397348169</v>
+        <v>2224.8919827017371</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2963,31 +2963,31 @@
         <v>958</v>
       </c>
       <c r="B81">
-        <v>-896.63281443571884</v>
+        <v>708.05585177758508</v>
       </c>
       <c r="C81">
-        <v>-735.90256867429264</v>
+        <v>1010.1527756295191</v>
       </c>
       <c r="D81">
-        <v>-649.52053343971829</v>
+        <v>1159.279789874917</v>
       </c>
       <c r="E81">
-        <v>-618.58863804457712</v>
+        <v>1218.3129617440179</v>
       </c>
       <c r="F81">
-        <v>-313.14433106715381</v>
+        <v>2005.5728091017179</v>
       </c>
       <c r="G81">
-        <v>-226.25152392462729</v>
+        <v>2210.973223804895</v>
       </c>
       <c r="H81">
-        <v>-574.51949504406548</v>
+        <v>1314.225947455933</v>
       </c>
       <c r="I81">
-        <v>-414.48122552494789</v>
+        <v>1736.3673976595981</v>
       </c>
       <c r="J81">
-        <v>-277.74990671260781</v>
+        <v>2137.0592429518192</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2995,31 +2995,31 @@
         <v>112</v>
       </c>
       <c r="B82">
-        <v>-654.67594962352257</v>
+        <v>654.286619157627</v>
       </c>
       <c r="C82">
-        <v>-405.24053674755118</v>
+        <v>1112.113861265882</v>
       </c>
       <c r="D82">
-        <v>-418.06845929026139</v>
+        <v>1090.352442441422</v>
       </c>
       <c r="E82">
-        <v>-340.41840755403371</v>
+        <v>1228.2997593885229</v>
       </c>
       <c r="F82">
-        <v>-82.182842465120871</v>
+        <v>1808.054072519865</v>
       </c>
       <c r="G82">
-        <v>85.754872770298405</v>
+        <v>2163.6810468058611</v>
       </c>
       <c r="H82">
-        <v>-261.11161001395573</v>
+        <v>1382.389640024636</v>
       </c>
       <c r="I82">
-        <v>-54.557540672637437</v>
+        <v>1846.2125822514461</v>
       </c>
       <c r="J82">
-        <v>98.329569653648832</v>
+        <v>2214.6099761447358</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3027,31 +3027,31 @@
         <v>769</v>
       </c>
       <c r="B83">
-        <v>-1247.98584487117</v>
+        <v>649.91927023296296</v>
       </c>
       <c r="C83">
-        <v>-1069.7642474364</v>
+        <v>1022.167158906631</v>
       </c>
       <c r="D83">
-        <v>-1057.5086310619481</v>
+        <v>1039.251383009748</v>
       </c>
       <c r="E83">
-        <v>-992.5301817814767</v>
+        <v>1180.3166787478849</v>
       </c>
       <c r="F83">
-        <v>-746.58970140717986</v>
+        <v>1905.352941329344</v>
       </c>
       <c r="G83">
-        <v>-581.97139768412399</v>
+        <v>2362.0464930548978</v>
       </c>
       <c r="H83">
-        <v>-916.2776892255481</v>
+        <v>1368.8778566567851</v>
       </c>
       <c r="I83">
-        <v>-725.20795182212009</v>
+        <v>1941.2430934900351</v>
       </c>
       <c r="J83">
-        <v>-705.20013351771445</v>
+        <v>2030.825124571709</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3059,31 +3059,31 @@
         <v>148</v>
       </c>
       <c r="B84">
-        <v>-967.55894208122697</v>
+        <v>610.97224363824455</v>
       </c>
       <c r="C84">
-        <v>-767.38192494968382</v>
+        <v>1008.417435288659</v>
       </c>
       <c r="D84">
-        <v>-702.49926353479259</v>
+        <v>1123.096423813301</v>
       </c>
       <c r="E84">
-        <v>-693.40939994275118</v>
+        <v>1164.377455371517</v>
       </c>
       <c r="F84">
-        <v>-380.72291547875687</v>
+        <v>1955.2705163973089</v>
       </c>
       <c r="G84">
-        <v>-280.93140148939727</v>
+        <v>2193.3445092179732</v>
       </c>
       <c r="H84">
-        <v>-562.5405246751634</v>
+        <v>1420.897199238048</v>
       </c>
       <c r="I84">
-        <v>-418.53596220706669</v>
+        <v>1846.8576669616141</v>
       </c>
       <c r="J84">
-        <v>-263.83259755167632</v>
+        <v>2176.766550073336</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3091,31 +3091,31 @@
         <v>664</v>
       </c>
       <c r="B85">
-        <v>675.40260427314149</v>
+        <v>759.04647413515659</v>
       </c>
       <c r="C85">
-        <v>910.99108281284384</v>
+        <v>1005.822087277983</v>
       </c>
       <c r="D85">
-        <v>1038.5984609507791</v>
+        <v>1141.4831751954559</v>
       </c>
       <c r="E85">
-        <v>1139.271786506717</v>
+        <v>1245.624388530121</v>
       </c>
       <c r="F85">
-        <v>1708.1557008023319</v>
+        <v>1875.703652244197</v>
       </c>
       <c r="G85">
-        <v>1900.6730572381</v>
+        <v>2080.924878087907</v>
       </c>
       <c r="H85">
-        <v>1256.16355128076</v>
+        <v>1373.5712227863521</v>
       </c>
       <c r="I85">
-        <v>1627.735298166519</v>
+        <v>1784.694143257474</v>
       </c>
       <c r="J85">
-        <v>2042.9763791664609</v>
+        <v>2233.1299784853509</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3155,31 +3155,31 @@
         <v>5</v>
       </c>
       <c r="B87">
-        <v>-402.62512658555852</v>
+        <v>642.8158275977014</v>
       </c>
       <c r="C87">
-        <v>-136.85586219841829</v>
+        <v>1124.323617240869</v>
       </c>
       <c r="D87">
-        <v>-120.8502822172409</v>
+        <v>1147.3106813000909</v>
       </c>
       <c r="E87">
-        <v>-50.983066884785707</v>
+        <v>1262.1524318619911</v>
       </c>
       <c r="F87">
-        <v>267.02663972922221</v>
+        <v>1849.94339091495</v>
       </c>
       <c r="G87">
-        <v>417.08268615182112</v>
+        <v>2136.8980494287389</v>
       </c>
       <c r="H87">
-        <v>86.212866370009536</v>
+        <v>1504.222218228279</v>
       </c>
       <c r="I87">
-        <v>190.00398110291621</v>
+        <v>1686.545252182287</v>
       </c>
       <c r="J87">
-        <v>416.95952665305492</v>
+        <v>2145.7885312450971</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3187,31 +3187,31 @@
         <v>454</v>
       </c>
       <c r="B88">
-        <v>-8.9747252002040234</v>
+        <v>624.58624289610293</v>
       </c>
       <c r="C88">
-        <v>308.10705845536251</v>
+        <v>1089.4064222275749</v>
       </c>
       <c r="D88">
-        <v>296.29042245792118</v>
+        <v>1075.036854425621</v>
       </c>
       <c r="E88">
-        <v>389.681090388862</v>
+        <v>1203.228093409984</v>
       </c>
       <c r="F88">
-        <v>740.04882513844473</v>
+        <v>1816.870752040656</v>
       </c>
       <c r="G88">
-        <v>965.23490482606542</v>
+        <v>2193.8157373129479</v>
       </c>
       <c r="H88">
-        <v>500.83383009105029</v>
+        <v>1373.093637394765</v>
       </c>
       <c r="I88">
-        <v>755.84132983593292</v>
+        <v>1827.9865066515219</v>
       </c>
       <c r="J88">
-        <v>1027.71020031286</v>
+        <v>2295.975753640827</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3219,31 +3219,31 @@
         <v>455</v>
       </c>
       <c r="B89">
-        <v>682.10457536642184</v>
+        <v>690.43241169129738</v>
       </c>
       <c r="C89">
-        <v>1072.462431679892</v>
+        <v>1083.0025516126921</v>
       </c>
       <c r="D89">
-        <v>1099.3284308456839</v>
+        <v>1110.2978736137741</v>
       </c>
       <c r="E89">
-        <v>1190.212259925941</v>
+        <v>1201.111465828413</v>
       </c>
       <c r="F89">
-        <v>1782.6298499607469</v>
+        <v>1801.7359861510461</v>
       </c>
       <c r="G89">
-        <v>2131.964323478936</v>
+        <v>2154.2935072707792</v>
       </c>
       <c r="H89">
-        <v>1343.865579966809</v>
+        <v>1356.605650169583</v>
       </c>
       <c r="I89">
-        <v>1825.0527793317269</v>
+        <v>1843.5204969132001</v>
       </c>
       <c r="J89">
-        <v>2235.8313414811792</v>
+        <v>2259.0000567492139</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3251,31 +3251,31 @@
         <v>80</v>
       </c>
       <c r="B90">
-        <v>-16.254866151184231</v>
+        <v>613.28797733804436</v>
       </c>
       <c r="C90">
-        <v>302.03572337076213</v>
+        <v>1077.813633659347</v>
       </c>
       <c r="D90">
-        <v>321.58542418836259</v>
+        <v>1101.855344413513</v>
       </c>
       <c r="E90">
-        <v>373.07321504478671</v>
+        <v>1181.7853987824069</v>
       </c>
       <c r="F90">
-        <v>746.23477170985745</v>
+        <v>1823.0250066823171</v>
       </c>
       <c r="G90">
-        <v>1012.543333174282</v>
+        <v>2271.3873661479151</v>
       </c>
       <c r="H90">
-        <v>490.91807475117901</v>
+        <v>1339.550521288339</v>
       </c>
       <c r="I90">
-        <v>757.03474448125939</v>
+        <v>1841.910451170306</v>
       </c>
       <c r="J90">
-        <v>1009.393970707347</v>
+        <v>2249.3843005178192</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3283,31 +3283,31 @@
         <v>429</v>
       </c>
       <c r="B91">
-        <v>330.88525085033598</v>
+        <v>660.40557145142884</v>
       </c>
       <c r="C91">
-        <v>668.67760109933624</v>
+        <v>1077.5188348600329</v>
       </c>
       <c r="D91">
-        <v>666.25960044506633</v>
+        <v>1075.0714645736109</v>
       </c>
       <c r="E91">
-        <v>773.58491373760603</v>
+        <v>1204.677226682709</v>
       </c>
       <c r="F91">
-        <v>1230.061760353113</v>
+        <v>1877.6681146458941</v>
       </c>
       <c r="G91">
-        <v>1467.2804069934591</v>
+        <v>2168.8601713715989</v>
       </c>
       <c r="H91">
-        <v>899.06567410540356</v>
+        <v>1370.7751721686179</v>
       </c>
       <c r="I91">
-        <v>1289.7575226781439</v>
+        <v>1945.5764230551181</v>
       </c>
       <c r="J91">
-        <v>1427.436330909514</v>
+        <v>2119.4470211909861</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3347,31 +3347,31 @@
         <v>46</v>
       </c>
       <c r="B93">
-        <v>163.70338024873749</v>
+        <v>634.46933071033595</v>
       </c>
       <c r="C93">
-        <v>477.62187971844781</v>
+        <v>1058.627614455673</v>
       </c>
       <c r="D93">
-        <v>504.88372957269058</v>
+        <v>1093.848125924781</v>
       </c>
       <c r="E93">
-        <v>581.05456925462636</v>
+        <v>1193.555127624636</v>
       </c>
       <c r="F93">
-        <v>895.77591320287024</v>
+        <v>1670.2247146751761</v>
       </c>
       <c r="G93">
-        <v>1243.0130791734771</v>
+        <v>2244.4345915684089</v>
       </c>
       <c r="H93">
-        <v>724.69612204679993</v>
+        <v>1395.3207225395349</v>
       </c>
       <c r="I93">
-        <v>1035.228076377221</v>
+        <v>1896.566956977553</v>
       </c>
       <c r="J93">
-        <v>1292.1058224540659</v>
+        <v>2312.9528155239041</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3379,31 +3379,31 @@
         <v>198</v>
       </c>
       <c r="B94">
-        <v>-618.89460386806365</v>
+        <v>695.63768253973865</v>
       </c>
       <c r="C94">
-        <v>-404.68618228740331</v>
+        <v>1097.5509849703039</v>
       </c>
       <c r="D94">
-        <v>-362.64634164832103</v>
+        <v>1160.6966802202739</v>
       </c>
       <c r="E94">
-        <v>-307.32693853412093</v>
+        <v>1260.520939595792</v>
       </c>
       <c r="F94">
-        <v>-23.3182953884988</v>
+        <v>1836.212539824646</v>
       </c>
       <c r="G94">
-        <v>134.06490569489881</v>
+        <v>2133.4535696111138</v>
       </c>
       <c r="H94">
-        <v>-185.0939028013332</v>
+        <v>1503.870523085855</v>
       </c>
       <c r="I94">
-        <v>-28.270813490512001</v>
+        <v>1813.019583771578</v>
       </c>
       <c r="J94">
-        <v>58.020157144229593</v>
+        <v>1999.037496380698</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3443,31 +3443,31 @@
         <v>313</v>
       </c>
       <c r="B96">
-        <v>-619.43071290486455</v>
+        <v>682.30522791288251</v>
       </c>
       <c r="C96">
-        <v>-376.67963517898039</v>
+        <v>1146.7954016086851</v>
       </c>
       <c r="D96">
-        <v>-374.50721330493491</v>
+        <v>1149.624776695257</v>
       </c>
       <c r="E96">
-        <v>-292.79703051099523</v>
+        <v>1289.2450556109261</v>
       </c>
       <c r="F96">
-        <v>-22.235254286665469</v>
+        <v>1815.04644075293</v>
       </c>
       <c r="G96">
-        <v>119.65194866892941</v>
+        <v>2081.0212011774879</v>
       </c>
       <c r="H96">
-        <v>-168.12555728004841</v>
+        <v>1520.2992809831001</v>
       </c>
       <c r="I96">
-        <v>-38.02030610208169</v>
+        <v>1768.7728502517609</v>
       </c>
       <c r="J96">
-        <v>90.700125878340629</v>
+        <v>2046.8897650069689</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3475,31 +3475,31 @@
         <v>423</v>
       </c>
       <c r="B97">
-        <v>696.04348172694279</v>
+        <v>704.37227914915763</v>
       </c>
       <c r="C97">
-        <v>1121.6964748327041</v>
+        <v>1133.160110973869</v>
       </c>
       <c r="D97">
-        <v>1157.767134818464</v>
+        <v>1169.75571316885</v>
       </c>
       <c r="E97">
-        <v>1281.0066670145529</v>
+        <v>1293.1209917935271</v>
       </c>
       <c r="F97">
-        <v>1776.1630295304849</v>
+        <v>1793.3086599539749</v>
       </c>
       <c r="G97">
-        <v>2094.0611675375039</v>
+        <v>2113.799561024116</v>
       </c>
       <c r="H97">
-        <v>1479.194051445912</v>
+        <v>1493.7682755797391</v>
       </c>
       <c r="I97">
-        <v>1774.8246585374179</v>
+        <v>1791.089934926129</v>
       </c>
       <c r="J97">
-        <v>1988.764998562373</v>
+        <v>2007.624473430636</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3507,31 +3507,31 @@
         <v>735</v>
       </c>
       <c r="B98">
-        <v>-431.70276572870142</v>
+        <v>623.75267153538289</v>
       </c>
       <c r="C98">
-        <v>-188.76290767437641</v>
+        <v>1035.248689780218</v>
       </c>
       <c r="D98">
-        <v>-166.4401159886107</v>
+        <v>1071.2141188354569</v>
       </c>
       <c r="E98">
-        <v>-109.5759550135209</v>
+        <v>1168.5438505398511</v>
       </c>
       <c r="F98">
-        <v>231.0539529556869</v>
+        <v>1905.5099432683039</v>
       </c>
       <c r="G98">
-        <v>347.57168197469201</v>
+        <v>2114.251555945471</v>
       </c>
       <c r="H98">
-        <v>13.905773368697229</v>
+        <v>1412.371547107542</v>
       </c>
       <c r="I98">
-        <v>220.75146046420539</v>
+        <v>1866.712429926446</v>
       </c>
       <c r="J98">
-        <v>435.90066002775689</v>
+        <v>2302.3951930613321</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3539,31 +3539,31 @@
         <v>281</v>
       </c>
       <c r="B99">
-        <v>658.71321450507276</v>
+        <v>693.14571208035159</v>
       </c>
       <c r="C99">
-        <v>1039.531876129322</v>
+        <v>1083.3377409965331</v>
       </c>
       <c r="D99">
-        <v>1045.290470230532</v>
+        <v>1088.2969618723889</v>
       </c>
       <c r="E99">
-        <v>1150.100835870079</v>
+        <v>1196.7643595173249</v>
       </c>
       <c r="F99">
-        <v>1723.0086939708281</v>
+        <v>1794.4667674254231</v>
       </c>
       <c r="G99">
-        <v>2014.827949685395</v>
+        <v>2095.6815143080698</v>
       </c>
       <c r="H99">
-        <v>1361.6349549472579</v>
+        <v>1412.7768064494071</v>
       </c>
       <c r="I99">
-        <v>1819.527878568299</v>
+        <v>1895.592060933599</v>
       </c>
       <c r="J99">
-        <v>2156.554610671928</v>
+        <v>2239.9380764169032</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3571,31 +3571,31 @@
         <v>178</v>
       </c>
       <c r="B100">
-        <v>10545.115315273009</v>
+        <v>785.28784241307324</v>
       </c>
       <c r="C100">
-        <v>16010.83025059682</v>
+        <v>1059.7899477480939</v>
       </c>
       <c r="D100">
-        <v>18650.075498780468</v>
+        <v>1254.8239496728891</v>
       </c>
       <c r="E100">
-        <v>19088.02376149255</v>
+        <v>1341.3156826952491</v>
       </c>
       <c r="F100">
-        <v>37934.430385879037</v>
+        <v>1836.4074383672059</v>
       </c>
       <c r="G100">
-        <v>40129.189964088459</v>
+        <v>2044.230796417447</v>
       </c>
       <c r="H100">
-        <v>17752.808453588721</v>
+        <v>1380.7831954775299</v>
       </c>
       <c r="I100">
-        <v>34374.193764949181</v>
+        <v>1721.3378921728829</v>
       </c>
       <c r="J100">
-        <v>44334.965498899648</v>
+        <v>2076.0232550356232</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3603,69 +3603,69 @@
         <v>592</v>
       </c>
       <c r="B101">
-        <v>406.83735306217369</v>
+        <v>626.49026272341666</v>
       </c>
       <c r="C101">
-        <v>775.33102307368267</v>
+        <v>1061.316816663501</v>
       </c>
       <c r="D101">
-        <v>796.13107310087605</v>
+        <v>1085.930956745975</v>
       </c>
       <c r="E101">
-        <v>911.587190802495</v>
+        <v>1220.287538081554</v>
       </c>
       <c r="F101">
-        <v>1347.9620968792831</v>
+        <v>1790.945396581064</v>
       </c>
       <c r="G101">
-        <v>1694.3698306583051</v>
+        <v>2216.63758387609</v>
       </c>
       <c r="H101">
-        <v>1061.545878343218</v>
+        <v>1404.653748403804</v>
       </c>
       <c r="I101">
-        <v>1418.8256907045691</v>
+        <v>1873.565744962794</v>
       </c>
       <c r="J101">
-        <v>1698.603331222429</v>
+        <v>2220.1719519618</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="B102">
         <f>SUM(B2:B101)/100</f>
-        <v>596.81727809138283</v>
+        <v>677.90395784896043</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:J102" si="0">SUM(C2:C101)/100</f>
-        <v>439.24640765171904</v>
+        <v>1089.7860549936454</v>
       </c>
       <c r="D102">
         <f t="shared" si="0"/>
-        <v>667.58371007037147</v>
+        <v>1125.4573183883454</v>
       </c>
       <c r="E102">
         <f t="shared" si="0"/>
-        <v>998.30823730684381</v>
+        <v>1229.4958016014605</v>
       </c>
       <c r="F102">
         <f t="shared" si="0"/>
-        <v>1824.1126348657056</v>
+        <v>1847.3708646603359</v>
       </c>
       <c r="G102">
         <f t="shared" si="0"/>
-        <v>2313.788371220342</v>
+        <v>2151.5147089065108</v>
       </c>
       <c r="H102">
         <f t="shared" si="0"/>
-        <v>905.91252239724633</v>
+        <v>1399.7140051656618</v>
       </c>
       <c r="I102">
         <f t="shared" si="0"/>
-        <v>1930.3831888665848</v>
+        <v>1828.7165432222732</v>
       </c>
       <c r="J102">
         <f t="shared" si="0"/>
-        <v>2259.2245705117348</v>
+        <v>2150.0407452128061</v>
       </c>
     </row>
   </sheetData>
